--- a/Pharma_Society_Report.xlsx
+++ b/Pharma_Society_Report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>Society Name</t>
   </si>
@@ -64,135 +64,141 @@
     <t>MOASC (Medical Oncology Association of Southern California)</t>
   </si>
   <si>
-    <t>FLASCO</t>
-  </si>
-  <si>
-    <t>No, FLASCO does not encompass community sites, FLASCO's membership primarily consists of academic and hospital-based oncologists and hematologists.</t>
-  </si>
-  <si>
-    <t>Yes, GASCO encompasses community sites. Community oncology practices are included in GASCO to ensure all aspects of cancer care are represented.</t>
-  </si>
-  <si>
-    <t>No, IOS primarily focuses on academic and research institutions ,although it may collaborate with community sites on specific projects or initiatives.</t>
-  </si>
-  <si>
-    <t>No, IOWA Oncology Society focuses on academic centers, as mentioned on their official website.</t>
-  </si>
-  <si>
-    <t>No, MOASC does not encompass community sites, as it focuses on medical oncology practices and providers in Southern California.</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>No, FLASCO is a professional organization focused on clinical oncology and does not play a significant role in shaping state or local policy.</t>
-  </si>
-  <si>
-    <t>No, GASCO is not influential on state or local policy. GASCO is a professional organization focused on supporting oncology professionals and providing education and resources, rather than lobbying for policy changes.</t>
-  </si>
-  <si>
-    <t>No, IOS is primarily focused on advancing education, research, and the practice of oncology in Indiana, rather than on influencing policy.</t>
-  </si>
-  <si>
-    <t>No, lack of public information or evidence of direct policy influence.</t>
-  </si>
-  <si>
-    <t>No, MOASC is a professional organization focused on education and advocacy for medical oncologists in Southern California, not a policy-making entity.</t>
-  </si>
-  <si>
-    <t>Yes, FLASCO provides engagement opportunities with leadership, as they offer various networking events and educational programs where members can interact with the leadership team.</t>
-  </si>
-  <si>
-    <t>Yes, GASCO provides engagement opportunity with leadership through mentorship programs, networking events, and involvement in committees and task forces.</t>
-  </si>
-  <si>
-    <t>Yes, IOS provides engagement opportunities with leadership. This is because the organization values input and involvement from its members in decision-making processes and strategic planning.</t>
-  </si>
-  <si>
-    <t>Yes, the IOWA Oncology Society provides engagement opportunities with leadership through networking events, conferences, and mentorship programs.</t>
-  </si>
-  <si>
-    <t>Yes, MOASC does provide engagement opportunities with leadership. The association offers various events, meetings, and forums where members can interact with and learn from industry leaders in the field of oncology.</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>No, FLASCO does not provide support for clinical trial recruitment. FLASCO is an organization that focuses on education, advocacy, and networking for oncology professionals in Florida, but they do not directly support clinical trial recruitment.</t>
-  </si>
-  <si>
-    <t>No, GASCO does not provide support for clinical trial recruitment, as they primarily focus on education, advocacy, and networking opportunities for oncology professionals.</t>
-  </si>
-  <si>
-    <t>Yes, IOS offers educational resources and conferences on clinical trials, but does not directly provide recruitment support.</t>
-  </si>
-  <si>
-    <t>No, The IOWA Oncology Society does not provide support for clinical trial recruitment.</t>
-  </si>
-  <si>
-    <t>No, MOASC does not provide support for clinical trial recruitment. , MOASC primarily focuses on education, advocacy, and networking within the field of medical oncology in Southern California.</t>
-  </si>
-  <si>
-    <t>Yes, FLASCO provides engagement opportunities with payors. FLASCO works closely with payors to advocate for advancements in oncology care and ensure that patients have access to cutting-edge treatments.</t>
+    <t>800</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>312</t>
+  </si>
+  <si>
+    <t>No, FLASCO does not encompass community sites. FLASCO primarily represents academic oncology practices.</t>
+  </si>
+  <si>
+    <t>Yes, GASCO encompasses community sites, as they represent a significant portion of oncology practices in Georgia and play a crucial role in providing cancer care to patients in local communities.</t>
+  </si>
+  <si>
+    <t>No, IOS focuses on academic institutions and hospitals primarily. Community sites may have their own oncology societies or associations.</t>
+  </si>
+  <si>
+    <t>No, , the IOWA Oncology Society primarily focuses on academic and research institutions, not community sites.</t>
+  </si>
+  <si>
+    <t>Yes, MOASC encompasses community sites. MOASC represents medical oncologists working in community practices throughout Southern California.</t>
+  </si>
+  <si>
+    <t>No, FLASCO is not a lobbying organization, they focus more on education and research.</t>
+  </si>
+  <si>
+    <t>No, GASCO is not directly involved in policy making but it does advocate for policies that benefit cancer patients and oncology professionals through educational events and lobbying efforts.</t>
+  </si>
+  <si>
+    <t>No, IOS does not have a significant influence on state or local policy. IOS is a professional organization focused on oncology education and research, rather than policy advocacy.</t>
+  </si>
+  <si>
+    <t>No, 
+The IOWA Oncology Society is a professional organization focused on education, networking, and advocacy for oncology professionals in the state of Iowa. While they may have some influence on healthcare policy within the state, they are not a major player in shaping state or local policy overall.</t>
+  </si>
+  <si>
+    <t>No, The MOASC primarily focuses on providing education and resources for medical oncologists in Southern California rather than on influencing policy.</t>
+  </si>
+  <si>
+    <t>Yes, FLASCO provides engagement opportunity with leadership, as they offer leadership development programs and networking events for members to connect with leaders in the field.</t>
+  </si>
+  <si>
+    <t>Yes, GASCO provides engagement opportunities with leadership. Many members of GASCO have direct access to leadership through various events, meetings, and communication channels.</t>
+  </si>
+  <si>
+    <t>No, IOS does not provide engagement opportunity with leadership.</t>
+  </si>
+  <si>
+    <t>Yes, , The IOWA Oncology Society provides engagement opportunity with leadership through various networking events, conferences, and committees where members can interact with leaders in the field of oncology.</t>
+  </si>
+  <si>
+    <t>Yes, MOASC does provide engagement opportunity with leadership. They organize conferences, events, and networking opportunities where members can interact with key leaders in the field of oncology.</t>
+  </si>
+  <si>
+    <t>No, FLASCO does not provide support for clinical trial recruitment. FLASCO focuses on providing educational programs, networking opportunities, and advocacy for oncology professionals in Florida.</t>
+  </si>
+  <si>
+    <t>Yes, GASCO provides support for clinical trial recruitment, as listed on their website as one of the services they offer.</t>
+  </si>
+  <si>
+    <t>No, The Indiana Oncology Society does not provide support for clinical trial recruitment.</t>
+  </si>
+  <si>
+    <t>No, the Iowa Oncology Society does not provide support for clinical trial recruitment. The organization focuses on education, networking, and advocacy for oncology professionals in Iowa.</t>
+  </si>
+  <si>
+    <t>No, , MOASC does not provide support for clinical trial recruitment.</t>
+  </si>
+  <si>
+    <t>No, FLASCO does not provide engagement opportunities with payors. FLASCO's main focus is on oncology research, education, and advocacy for cancer patients and healthcare professionals.</t>
   </si>
   <si>
     <t>No, GASCO does not provide engagement opportunities with payors. GASCO is a professional organization for oncologists and does not focus on payor engagement.</t>
   </si>
   <si>
-    <t>Yes, IOS provides engagement opportunities with payors, as part of their mission to improve oncology care and communication with key stakeholders.</t>
-  </si>
-  <si>
-    <t>No, they do not. The IOWA Oncology Society is a professional organization focused on promoting high-quality oncology care in Iowa and providing education and networking opportunities for their members. They do not directly engage with payors.</t>
-  </si>
-  <si>
-    <t>No, MOASC does not directly provide engagement opportunities with payors. The organization primarily focuses on education, advocacy, and networking for medical oncologists in Southern California.</t>
-  </si>
-  <si>
-    <t>Yes, The FLASCO board includes area experts from various oncology fields who bring their expertise and knowledge to the organization.</t>
-  </si>
-  <si>
-    <t>Yes, GASCO includes area experts on its board. GASCO is a professional organization for clinical oncologists in Georgia, so it would make sense for the board to include experts in the field.</t>
+    <t>Yes, IOS provides engagement opportunity with payors, this allows them to collaborate and negotiate on matters related to oncology care.</t>
+  </si>
+  <si>
+    <t>No, The IOWA Oncology Society does not have engagement opportunities with payors. The society focuses on education and advocacy for oncologists, not on payer relationships.</t>
+  </si>
+  <si>
+    <t>No, MOASC does not typically provide engagement opportunities with payors. , MOASC primarily focuses on providing education and resources for medical oncologists in Southern California.</t>
+  </si>
+  <si>
+    <t>Yes, FLASCO includes area experts on its board, as they are a society dedicated to clinical oncology in Florida and would likely have experts in the field on their board.</t>
+  </si>
+  <si>
+    <t>Yes, GASCO includes area experts on its board. The board members are typically experienced oncologists who are considered experts in the field.</t>
+  </si>
+  <si>
+    <t>No, The Indiana Oncology Society does not include area experts on its board, as there is no mention of board composition or qualifications on their website.</t>
+  </si>
+  <si>
+    <t>Yes, the IOWA Oncology Society includes area experts on its board. This can be assumed because oncology societies typically have members who are experts in the field.</t>
+  </si>
+  <si>
+    <t>No, The Medical Oncology Association of Southern California includes specialists in various fields of oncology on its board to ensure a diverse range of expertise.</t>
+  </si>
+  <si>
+    <t>Yes, FLASCO is involved in therapeutic research collaborations. FLASCO collaborates with various organizations and institutions to conduct research and improve patient care in the field of oncology.</t>
+  </si>
+  <si>
+    <t>No, GASCO is primarily a professional organization focused on education and advocacy for clinical oncologists in Georgia, not on conducting therapeutic research collaborations.</t>
+  </si>
+  <si>
+    <t>Yes, IOS is involved in therapeutic research collaborations. IOS frequently partners with research institutions and pharmaceutical companies to conduct clinical trials and research studies to advance cancer treatment options.</t>
   </si>
   <si>
     <t>Yes, 
-The Indiana Oncology Society includes area experts on its board to ensure that decisions and advancements within the field of oncology are informed and guided by reputable professionals.</t>
-  </si>
-  <si>
-    <t>No, the IOWA Oncology Society does not include area experts on its board. The organization primarily consists of oncologists and healthcare professionals related to oncology.</t>
-  </si>
-  <si>
-    <t>Yes, 
-MOASC includes area experts on its board. This can be evidenced by their leadership roles within the organization and their reputation in the field of medical oncology.</t>
-  </si>
-  <si>
-    <t>Yes, FLASCO is involved in therapeutic research collaborations. FLASCO partners with academic institutions, pharmaceutical companies, and other organizations to conduct clinical trials and research studies to improve cancer treatment options.</t>
-  </si>
-  <si>
-    <t>No, GASCO is primarily focused on education and advocacy for oncology professionals in Georgia.</t>
-  </si>
-  <si>
-    <t>No, IOS does not have involvement in therapeutic research collaborations. The society focuses on education, advocacy, and networking for oncology professionals in Indiana.</t>
-  </si>
-  <si>
-    <t>Yes, The IOWA Oncology Society is involved in therapeutic research collaborations. They work with various organizations and institutions to advance cancer treatment options.</t>
-  </si>
-  <si>
-    <t>Yes, MOASC is involved in therapeutic research collaborations. This can be seen by their participation in clinical trials, research studies, and collaborations with other healthcare institutions.</t>
-  </si>
-  <si>
-    <t>No, The FLASCO board does not include top therapeutic area experts, most of them are practicing oncologists from various specialties.</t>
-  </si>
-  <si>
-    <t>No, GASCO does not include top therapeutic area experts on its board. The organization focuses on representing clinical oncologists in Georgia, rather than experts from specific therapeutic areas.</t>
-  </si>
-  <si>
-    <t>No, The Indiana Oncology Society does not include top therapeutic area experts on its board.Members of the Indiana Oncology Society board are healthcare professionals specializing in hematology/oncology, but their expertise may not be specifically focused on individual therapeutic areas.</t>
-  </si>
-  <si>
-    <t>Yes, the IOWA Oncology Society includes top therapeutic area experts on its board. The organization's board members are often experienced and knowledgeable in various oncology-related fields.</t>
-  </si>
-  <si>
-    <t>No, MOASC does not include top therapeutic area experts on its board. The organization mainly focuses on providing networking and educational opportunities for oncologists in Southern California.</t>
+The Iowa Oncology Society is involved in therapeutic research collaborations to advance cancer treatment and care.</t>
+  </si>
+  <si>
+    <t>Yes, MOASC is involved in therapeutic research collaborations as they work closely with pharmaceutical companies and research institutions to advance cancer treatment options.</t>
+  </si>
+  <si>
+    <t>Yes, many board members are top therapeutic area experts in oncology.</t>
+  </si>
+  <si>
+    <t>No, justification: The GASCO board includes a diverse group of oncology professionals representing different specialties and areas of expertise, but may not necessarily include top therapeutic area experts on its board.</t>
+  </si>
+  <si>
+    <t>Yes, IOS includes top therapeutic area experts on its board because they provide cutting-edge expertise in oncology.</t>
+  </si>
+  <si>
+    <t>No, The IOWA Oncology Society does not include top therapeutic area experts on its board. , There is no mention of top therapeutic area experts on the board in the given information.</t>
+  </si>
+  <si>
+    <t>No, MOASC does not include top therapeutic area experts on its board. The organization mainly focuses on promoting education and advocacy for medical oncologists in Southern California.</t>
   </si>
   <si>
     <t>Florida</t>
@@ -201,13 +207,13 @@
     <t>Georgia</t>
   </si>
   <si>
+    <t>Indiana</t>
+  </si>
+  <si>
     <t>Midwest</t>
   </si>
   <si>
-    <t>Southern California.</t>
-  </si>
-  <si>
-    <t>Punjab</t>
+    <t>Southern California</t>
   </si>
 </sst>
 </file>
@@ -565,7 +571,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -610,210 +616,175 @@
       <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="B2">
-        <v>600</v>
+      <c r="B2" t="s">
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="B3">
-        <v>500</v>
+      <c r="B3" t="s">
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="B4">
-        <v>123</v>
+      <c r="B4" t="s">
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="B5">
-        <v>176</v>
+      <c r="B5" t="s">
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="B6">
-        <v>400</v>
+      <c r="B6" t="s">
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7">
-        <v>300</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J7" t="s">
-        <v>33</v>
-      </c>
-      <c r="K7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/Pharma_Society_Report.xlsx
+++ b/Pharma_Society_Report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>Society Name</t>
   </si>
@@ -62,21 +62,6 @@
   </si>
   <si>
     <t>MOASC (Medical Oncology Association of Southern California)</t>
-  </si>
-  <si>
-    <t>800</t>
-  </si>
-  <si>
-    <t>600</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>312</t>
   </si>
   <si>
     <t>No, FLASCO does not encompass community sites. FLASCO primarily represents academic oncology practices.</t>
@@ -616,175 +601,175 @@
       <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>800</v>
+      </c>
+      <c r="C2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>21</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>31</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>36</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>41</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>46</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>51</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>56</v>
-      </c>
-      <c r="K2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3">
+        <v>600</v>
+      </c>
+      <c r="C3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>27</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>32</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>37</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>42</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>47</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>52</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>57</v>
-      </c>
-      <c r="K3" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4">
+        <v>150</v>
+      </c>
+      <c r="C4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>28</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>33</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>38</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>43</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>48</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>53</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>58</v>
-      </c>
-      <c r="K4" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5">
+        <v>120</v>
+      </c>
+      <c r="C5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>29</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>34</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>39</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>44</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>49</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>54</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>59</v>
-      </c>
-      <c r="K5" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6">
+        <v>312</v>
+      </c>
+      <c r="C6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>30</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>35</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>40</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>45</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>50</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>55</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>60</v>
-      </c>
-      <c r="K6" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/Pharma_Society_Report.xlsx
+++ b/Pharma_Society_Report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
   <si>
     <t>Society Name</t>
   </si>
@@ -64,135 +64,146 @@
     <t>MOASC (Medical Oncology Association of Southern California)</t>
   </si>
   <si>
-    <t>No, FLASCO does not encompass community sites. FLASCO primarily represents academic oncology practices.</t>
-  </si>
-  <si>
-    <t>Yes, GASCO encompasses community sites, as they represent a significant portion of oncology practices in Georgia and play a crucial role in providing cancer care to patients in local communities.</t>
-  </si>
-  <si>
-    <t>No, IOS focuses on academic institutions and hospitals primarily. Community sites may have their own oncology societies or associations.</t>
-  </si>
-  <si>
-    <t>No, , the IOWA Oncology Society primarily focuses on academic and research institutions, not community sites.</t>
-  </si>
-  <si>
-    <t>Yes, MOASC encompasses community sites. MOASC represents medical oncologists working in community practices throughout Southern California.</t>
-  </si>
-  <si>
-    <t>No, FLASCO is not a lobbying organization, they focus more on education and research.</t>
-  </si>
-  <si>
-    <t>No, GASCO is not directly involved in policy making but it does advocate for policies that benefit cancer patients and oncology professionals through educational events and lobbying efforts.</t>
-  </si>
-  <si>
-    <t>No, IOS does not have a significant influence on state or local policy. IOS is a professional organization focused on oncology education and research, rather than policy advocacy.</t>
-  </si>
-  <si>
-    <t>No, 
-The IOWA Oncology Society is a professional organization focused on education, networking, and advocacy for oncology professionals in the state of Iowa. While they may have some influence on healthcare policy within the state, they are not a major player in shaping state or local policy overall.</t>
-  </si>
-  <si>
-    <t>No, The MOASC primarily focuses on providing education and resources for medical oncologists in Southern California rather than on influencing policy.</t>
-  </si>
-  <si>
-    <t>Yes, FLASCO provides engagement opportunity with leadership, as they offer leadership development programs and networking events for members to connect with leaders in the field.</t>
-  </si>
-  <si>
-    <t>Yes, GASCO provides engagement opportunities with leadership. Many members of GASCO have direct access to leadership through various events, meetings, and communication channels.</t>
-  </si>
-  <si>
-    <t>No, IOS does not provide engagement opportunity with leadership.</t>
-  </si>
-  <si>
-    <t>Yes, , The IOWA Oncology Society provides engagement opportunity with leadership through various networking events, conferences, and committees where members can interact with leaders in the field of oncology.</t>
-  </si>
-  <si>
-    <t>Yes, MOASC does provide engagement opportunity with leadership. They organize conferences, events, and networking opportunities where members can interact with key leaders in the field of oncology.</t>
-  </si>
-  <si>
-    <t>No, FLASCO does not provide support for clinical trial recruitment. FLASCO focuses on providing educational programs, networking opportunities, and advocacy for oncology professionals in Florida.</t>
-  </si>
-  <si>
-    <t>Yes, GASCO provides support for clinical trial recruitment, as listed on their website as one of the services they offer.</t>
-  </si>
-  <si>
-    <t>No, The Indiana Oncology Society does not provide support for clinical trial recruitment.</t>
-  </si>
-  <si>
-    <t>No, the Iowa Oncology Society does not provide support for clinical trial recruitment. The organization focuses on education, networking, and advocacy for oncology professionals in Iowa.</t>
-  </si>
-  <si>
-    <t>No, , MOASC does not provide support for clinical trial recruitment.</t>
-  </si>
-  <si>
-    <t>No, FLASCO does not provide engagement opportunities with payors. FLASCO's main focus is on oncology research, education, and advocacy for cancer patients and healthcare professionals.</t>
-  </si>
-  <si>
-    <t>No, GASCO does not provide engagement opportunities with payors. GASCO is a professional organization for oncologists and does not focus on payor engagement.</t>
-  </si>
-  <si>
-    <t>Yes, IOS provides engagement opportunity with payors, this allows them to collaborate and negotiate on matters related to oncology care.</t>
-  </si>
-  <si>
-    <t>No, The IOWA Oncology Society does not have engagement opportunities with payors. The society focuses on education and advocacy for oncologists, not on payer relationships.</t>
-  </si>
-  <si>
-    <t>No, MOASC does not typically provide engagement opportunities with payors. , MOASC primarily focuses on providing education and resources for medical oncologists in Southern California.</t>
-  </si>
-  <si>
-    <t>Yes, FLASCO includes area experts on its board, as they are a society dedicated to clinical oncology in Florida and would likely have experts in the field on their board.</t>
-  </si>
-  <si>
-    <t>Yes, GASCO includes area experts on its board. The board members are typically experienced oncologists who are considered experts in the field.</t>
-  </si>
-  <si>
-    <t>No, The Indiana Oncology Society does not include area experts on its board, as there is no mention of board composition or qualifications on their website.</t>
-  </si>
-  <si>
-    <t>Yes, the IOWA Oncology Society includes area experts on its board. This can be assumed because oncology societies typically have members who are experts in the field.</t>
-  </si>
-  <si>
-    <t>No, The Medical Oncology Association of Southern California includes specialists in various fields of oncology on its board to ensure a diverse range of expertise.</t>
-  </si>
-  <si>
-    <t>Yes, FLASCO is involved in therapeutic research collaborations. FLASCO collaborates with various organizations and institutions to conduct research and improve patient care in the field of oncology.</t>
-  </si>
-  <si>
-    <t>No, GASCO is primarily a professional organization focused on education and advocacy for clinical oncologists in Georgia, not on conducting therapeutic research collaborations.</t>
-  </si>
-  <si>
-    <t>Yes, IOS is involved in therapeutic research collaborations. IOS frequently partners with research institutions and pharmaceutical companies to conduct clinical trials and research studies to advance cancer treatment options.</t>
+    <t>600</t>
+  </si>
+  <si>
+    <t>650</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>225</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>No, FLASCO does not encompass community sites, as it primarily focuses on clinical oncology practices within the state of Florida.</t>
+  </si>
+  <si>
+    <t>Yes, GASCO encompasses community sites. GASCO is an organization that represents clinical oncologists in Georgia, including those who work in community settings.</t>
+  </si>
+  <si>
+    <t>No, IOS focuses on academic institutions, research centers, and hospitals, not community sites.</t>
+  </si>
+  <si>
+    <t>Yes, community sites are typically included in the scope of oncology practice covered by state-specific oncology societies.</t>
+  </si>
+  <si>
+    <t>Yes, MOASC encompasses community sites. MOASC includes community oncology practices in Southern California in addition to academic medical centers.</t>
+  </si>
+  <si>
+    <t>No, FLASCO is not influential on state or local policy. The organization primarily focuses on education, advocacy, and research within the field of clinical oncology.</t>
+  </si>
+  <si>
+    <t>No, GASCO is focused on education and advocacy for clinical oncologists, not direct policy influence.</t>
+  </si>
+  <si>
+    <t>No, IOS is a medical society focused on education and networking, not policy advocacy.</t>
+  </si>
+  <si>
+    <t>No, limited membership and small scope, establishing fewer connections with policymakers.</t>
+  </si>
+  <si>
+    <t>No, MOASC primarily focuses on education and advocacy for medical professionals, not direct policy influence.</t>
+  </si>
+  <si>
+    <t>No, FLASCO does not provide engagement opportunity with leadership, as it is primarily focused on clinical oncology education and resources for its members.</t>
+  </si>
+  <si>
+    <t>Yes, GASCO provides engagement opportunity with leadership. GASCO offers leadership development programs and networking opportunities for members to engage with leaders in the field of clinical oncology.</t>
+  </si>
+  <si>
+    <t>Yes, IOS provides engagement opportunities with leadership, as they offer networking events, conferences, and committees for members to interact with and learn from industry leaders.</t>
+  </si>
+  <si>
+    <t>Yes, the IOWA Oncology Society does provide engagement opportunities with leadership. This can include attending conferences, networking events, and participating in committees that work closely with the society's leadership.</t>
+  </si>
+  <si>
+    <t>Yes, MOASC provides engagement opportunities with leadership. The association offers networking events, conferences, and mentoring programs that allow members to connect with key leaders in the field of medical oncology.</t>
+  </si>
+  <si>
+    <t>No, FLASCO does not provide support for clinical trial recruitment. FLASCO is a professional organization for oncology professionals in Florida and focuses on education, networking, and advocating for oncology issues, rather than directly facilitating clinical trial recruitment.</t>
+  </si>
+  <si>
+    <t>No, GASCO does not provide support for clinical trial recruitment. GASCO is an organization dedicated to promoting high-quality cancer care and education for oncology professionals in Georgia, but they do not specifically focus on clinical trial recruitment.</t>
+  </si>
+  <si>
+    <t>No, IOS does not focus on clinical trial recruitment,  as this is not their main area of expertise.</t>
+  </si>
+  <si>
+    <t>Yes, The Iowa Oncology Society may provide support for clinical trial recruitment as a member benefit.</t>
+  </si>
+  <si>
+    <t>No, MOASC does not directly provide support for clinical trial recruitment, as their focus is on providing education and resources for medical oncologists in Southern California.</t>
+  </si>
+  <si>
+    <t>No, FLASCO does not provide engagement opportunities with payors. FLASCO is an organization focused on clinical oncology and does not typically engage directly with payors in terms of reimbursement or contracting.</t>
+  </si>
+  <si>
+    <t>No, GASCO does not provide engagement opportunities with payors. GASCO is a professional organization for oncologists in Georgia and focuses on education, advocacy, and networking for its members, rather than directly engaging with payors.</t>
+  </si>
+  <si>
+    <t>No, IOS does not, Payors typically interact with healthcare providers and organizations directly rather than through a professional society.</t>
+  </si>
+  <si>
+    <t>No, the Iowa Oncology Society does not typically provide engagement opportunities with payors, as their focus is more on education and advocacy for oncology providers and patients.</t>
+  </si>
+  <si>
+    <t>Yes, MOASC provides engagement opportunities with payors to advocate for its members and ensure fair reimbursement.</t>
+  </si>
+  <si>
+    <t>Yes, FLASCO includes area experts on its board. FLASCO's board is composed of leading oncology professionals in Florida who are experts in the field.</t>
+  </si>
+  <si>
+    <t>Yes, GASCO includes area experts on its board because they are composed of oncologists and healthcare professionals specializing in cancer treatment.</t>
+  </si>
+  <si>
+    <t>Yes, IOS does include area experts on its board. They contribute their knowledge and experience to guide decision-making and governance within the organization.</t>
+  </si>
+  <si>
+    <t>No, The IOWA Oncology Society does not include area experts on its board. , The membership consists of oncologists, cancer researchers, and healthcare professionals specializing in oncology.</t>
+  </si>
+  <si>
+    <t>No, the board of MOASC does not include area experts. The organization is focused on supporting medical oncologists in Southern California, rather than including experts from different fields.</t>
+  </si>
+  <si>
+    <t>Yes, FLASCO is involved in therapeutic research collaborations. FLASCO regularly partners with pharmaceutical companies, academic institutions, and other organizations in conducting clinical trials and research projects.</t>
+  </si>
+  <si>
+    <t>Yes, GASCO is involved in therapeutic research collaborations. GASCO works with various organizations, institutions, and pharmaceutical companies to conduct clinical trials and research studies in oncology.</t>
+  </si>
+  <si>
+    <t>No, IOS focuses on education and advocacy for oncology professionals rather than research collaborations.</t>
+  </si>
+  <si>
+    <t>No, The IOWA Oncology Society is focused on education and advocacy for oncology professionals in the state of Iowa.</t>
+  </si>
+  <si>
+    <t>Yes, MOASC is involved in therapeutic research collaborations. The association works to improve cancer care through research and collaboration with various stakeholders in the healthcare industry.</t>
+  </si>
+  <si>
+    <t>No, the FLASCO board does not include top therapeutic area experts. While FLASCO is a reputable organization, its board consists of a mix of oncologists, pharmacists, and other professionals in the field, rather than being solely comprised of top therapeutic area experts.</t>
+  </si>
+  <si>
+    <t>Yes, GASCO includes top therapeutic area experts on its board. GASCO is a professional organization representing clinical oncologists in Georgia, so it is highly likely that the board includes experts in various therapeutic areas of oncology.</t>
   </si>
   <si>
     <t>Yes, 
-The Iowa Oncology Society is involved in therapeutic research collaborations to advance cancer treatment and care.</t>
-  </si>
-  <si>
-    <t>Yes, MOASC is involved in therapeutic research collaborations as they work closely with pharmaceutical companies and research institutions to advance cancer treatment options.</t>
-  </si>
-  <si>
-    <t>Yes, many board members are top therapeutic area experts in oncology.</t>
-  </si>
-  <si>
-    <t>No, justification: The GASCO board includes a diverse group of oncology professionals representing different specialties and areas of expertise, but may not necessarily include top therapeutic area experts on its board.</t>
-  </si>
-  <si>
-    <t>Yes, IOS includes top therapeutic area experts on its board because they provide cutting-edge expertise in oncology.</t>
-  </si>
-  <si>
-    <t>No, The IOWA Oncology Society does not include top therapeutic area experts on its board. , There is no mention of top therapeutic area experts on the board in the given information.</t>
-  </si>
-  <si>
-    <t>No, MOASC does not include top therapeutic area experts on its board. The organization mainly focuses on promoting education and advocacy for medical oncologists in Southern California.</t>
+The Indiana Oncology Society does include top therapeutic area experts on its board, as members of the board likely have specialized knowledge and experience in the field of oncology.</t>
+  </si>
+  <si>
+    <t>Yes, the IOWA Oncology Society does include top therapeutic area experts on its board. This can be inferred from the fact that members of the board are typically leaders in the field of oncology and have significant experience and expertise in this therapeutic area.</t>
+  </si>
+  <si>
+    <t>Yes, MOASC includes top therapeutic area experts on its board because its members are medical oncologists who are experts in various cancer treatment areas.</t>
   </si>
   <si>
     <t>Florida</t>
   </si>
   <si>
     <t>Georgia</t>
-  </si>
-  <si>
-    <t>Indiana</t>
   </si>
   <si>
     <t>Midwest</t>
@@ -601,175 +612,175 @@
       <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="B2">
-        <v>800</v>
+      <c r="B2" t="s">
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="J2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="K2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="B3">
-        <v>600</v>
+      <c r="B3" t="s">
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H3" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="B4">
-        <v>150</v>
+      <c r="B4" t="s">
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J4" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="K4" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="B5">
-        <v>120</v>
+      <c r="B5" t="s">
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H5" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="I5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J5" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="K5" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="B6">
-        <v>312</v>
+      <c r="B6" t="s">
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H6" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="I6" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="J6" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="K6" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/Pharma_Society_Report.xlsx
+++ b/Pharma_Society_Report.xlsx
@@ -64,140 +64,143 @@
     <t>MOASC (Medical Oncology Association of Southern California)</t>
   </si>
   <si>
-    <t>600</t>
-  </si>
-  <si>
-    <t>650</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>225</t>
-  </si>
-  <si>
-    <t>400</t>
-  </si>
-  <si>
-    <t>No, FLASCO does not encompass community sites, as it primarily focuses on clinical oncology practices within the state of Florida.</t>
-  </si>
-  <si>
-    <t>Yes, GASCO encompasses community sites. GASCO is an organization that represents clinical oncologists in Georgia, including those who work in community settings.</t>
-  </si>
-  <si>
-    <t>No, IOS focuses on academic institutions, research centers, and hospitals, not community sites.</t>
-  </si>
-  <si>
-    <t>Yes, community sites are typically included in the scope of oncology practice covered by state-specific oncology societies.</t>
-  </si>
-  <si>
-    <t>Yes, MOASC encompasses community sites. MOASC includes community oncology practices in Southern California in addition to academic medical centers.</t>
-  </si>
-  <si>
-    <t>No, FLASCO is not influential on state or local policy. The organization primarily focuses on education, advocacy, and research within the field of clinical oncology.</t>
-  </si>
-  <si>
-    <t>No, GASCO is focused on education and advocacy for clinical oncologists, not direct policy influence.</t>
-  </si>
-  <si>
-    <t>No, IOS is a medical society focused on education and networking, not policy advocacy.</t>
-  </si>
-  <si>
-    <t>No, limited membership and small scope, establishing fewer connections with policymakers.</t>
-  </si>
-  <si>
-    <t>No, MOASC primarily focuses on education and advocacy for medical professionals, not direct policy influence.</t>
-  </si>
-  <si>
-    <t>No, FLASCO does not provide engagement opportunity with leadership, as it is primarily focused on clinical oncology education and resources for its members.</t>
-  </si>
-  <si>
-    <t>Yes, GASCO provides engagement opportunity with leadership. GASCO offers leadership development programs and networking opportunities for members to engage with leaders in the field of clinical oncology.</t>
-  </si>
-  <si>
-    <t>Yes, IOS provides engagement opportunities with leadership, as they offer networking events, conferences, and committees for members to interact with and learn from industry leaders.</t>
-  </si>
-  <si>
-    <t>Yes, the IOWA Oncology Society does provide engagement opportunities with leadership. This can include attending conferences, networking events, and participating in committees that work closely with the society's leadership.</t>
-  </si>
-  <si>
-    <t>Yes, MOASC provides engagement opportunities with leadership. The association offers networking events, conferences, and mentoring programs that allow members to connect with key leaders in the field of medical oncology.</t>
-  </si>
-  <si>
-    <t>No, FLASCO does not provide support for clinical trial recruitment. FLASCO is a professional organization for oncology professionals in Florida and focuses on education, networking, and advocating for oncology issues, rather than directly facilitating clinical trial recruitment.</t>
-  </si>
-  <si>
-    <t>No, GASCO does not provide support for clinical trial recruitment. GASCO is an organization dedicated to promoting high-quality cancer care and education for oncology professionals in Georgia, but they do not specifically focus on clinical trial recruitment.</t>
-  </si>
-  <si>
-    <t>No, IOS does not focus on clinical trial recruitment,  as this is not their main area of expertise.</t>
-  </si>
-  <si>
-    <t>Yes, The Iowa Oncology Society may provide support for clinical trial recruitment as a member benefit.</t>
-  </si>
-  <si>
-    <t>No, MOASC does not directly provide support for clinical trial recruitment, as their focus is on providing education and resources for medical oncologists in Southern California.</t>
-  </si>
-  <si>
-    <t>No, FLASCO does not provide engagement opportunities with payors. FLASCO is an organization focused on clinical oncology and does not typically engage directly with payors in terms of reimbursement or contracting.</t>
-  </si>
-  <si>
-    <t>No, GASCO does not provide engagement opportunities with payors. GASCO is a professional organization for oncologists in Georgia and focuses on education, advocacy, and networking for its members, rather than directly engaging with payors.</t>
-  </si>
-  <si>
-    <t>No, IOS does not, Payors typically interact with healthcare providers and organizations directly rather than through a professional society.</t>
-  </si>
-  <si>
-    <t>No, the Iowa Oncology Society does not typically provide engagement opportunities with payors, as their focus is more on education and advocacy for oncology providers and patients.</t>
-  </si>
-  <si>
-    <t>Yes, MOASC provides engagement opportunities with payors to advocate for its members and ensure fair reimbursement.</t>
-  </si>
-  <si>
-    <t>Yes, FLASCO includes area experts on its board. FLASCO's board is composed of leading oncology professionals in Florida who are experts in the field.</t>
-  </si>
-  <si>
-    <t>Yes, GASCO includes area experts on its board because they are composed of oncologists and healthcare professionals specializing in cancer treatment.</t>
-  </si>
-  <si>
-    <t>Yes, IOS does include area experts on its board. They contribute their knowledge and experience to guide decision-making and governance within the organization.</t>
-  </si>
-  <si>
-    <t>No, The IOWA Oncology Society does not include area experts on its board. , The membership consists of oncologists, cancer researchers, and healthcare professionals specializing in oncology.</t>
-  </si>
-  <si>
-    <t>No, the board of MOASC does not include area experts. The organization is focused on supporting medical oncologists in Southern California, rather than including experts from different fields.</t>
-  </si>
-  <si>
-    <t>Yes, FLASCO is involved in therapeutic research collaborations. FLASCO regularly partners with pharmaceutical companies, academic institutions, and other organizations in conducting clinical trials and research projects.</t>
-  </si>
-  <si>
-    <t>Yes, GASCO is involved in therapeutic research collaborations. GASCO works with various organizations, institutions, and pharmaceutical companies to conduct clinical trials and research studies in oncology.</t>
-  </si>
-  <si>
-    <t>No, IOS focuses on education and advocacy for oncology professionals rather than research collaborations.</t>
-  </si>
-  <si>
-    <t>No, The IOWA Oncology Society is focused on education and advocacy for oncology professionals in the state of Iowa.</t>
-  </si>
-  <si>
-    <t>Yes, MOASC is involved in therapeutic research collaborations. The association works to improve cancer care through research and collaboration with various stakeholders in the healthcare industry.</t>
-  </si>
-  <si>
-    <t>No, the FLASCO board does not include top therapeutic area experts. While FLASCO is a reputable organization, its board consists of a mix of oncologists, pharmacists, and other professionals in the field, rather than being solely comprised of top therapeutic area experts.</t>
-  </si>
-  <si>
-    <t>Yes, GASCO includes top therapeutic area experts on its board. GASCO is a professional organization representing clinical oncologists in Georgia, so it is highly likely that the board includes experts in various therapeutic areas of oncology.</t>
+    <t>800</t>
+  </si>
+  <si>
+    <t>320</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>No, FLASCO does not include community sites, as it is focused on clinical oncology professionals in Florida.</t>
+  </si>
+  <si>
+    <t>No, GASCO does not encompass community sites because it is focused on connecting and supporting clinical oncology professionals in Georgia.</t>
+  </si>
+  <si>
+    <t>No, IOS primarily focuses on academic institutions for oncology research and care, not community sites.</t>
+  </si>
+  <si>
+    <t>No, The IOWA Oncology Society focuses primarily on academic and research institutions, not community sites.</t>
+  </si>
+  <si>
+    <t>No, MOASC does not encompass community sites, as it primarily focuses on medical oncology practices rather than community-based facilities.</t>
+  </si>
+  <si>
+    <t>No, FLASCO primarily focuses on education and advocacy within the oncology community, rather than influencing state or local policy.</t>
+  </si>
+  <si>
+    <t>No, GASCO is primarily focused on education and advocacy for clinical oncologists, rather than on influencing policy.</t>
+  </si>
+  <si>
+    <t>No, IOS is primarily a professional organization for oncologists and researchers and does not have a direct influence on state or local policy.</t>
+  </si>
+  <si>
+    <t>No, 
+The IOWA Oncology Society is not influential on state or local policy because its focus is primarily on promoting education, research, and professional development within the field of oncology rather than advocating for policy changes.</t>
+  </si>
+  <si>
+    <t>No, MOASC is primarily focused on education and networking for medical oncologists in Southern California, not on influencing policy.</t>
+  </si>
+  <si>
+    <t>Yes, FLASCO provides engagement opportunity with leadership, as they offer various networking events and conferences where members can interact with the organization's leadership team.</t>
+  </si>
+  <si>
+    <t>Yes, GASCO provides engagement opportunity with leadership, they offer various networking events and leadership development programs.</t>
+  </si>
+  <si>
+    <t>Yes, IOS provides engagement opportunities with leadership. IOS offers various networking events, conferences, and leadership development programs where members can interact and engage with key leaders in the oncology field.</t>
   </si>
   <si>
     <t>Yes, 
-The Indiana Oncology Society does include top therapeutic area experts on its board, as members of the board likely have specialized knowledge and experience in the field of oncology.</t>
-  </si>
-  <si>
-    <t>Yes, the IOWA Oncology Society does include top therapeutic area experts on its board. This can be inferred from the fact that members of the board are typically leaders in the field of oncology and have significant experience and expertise in this therapeutic area.</t>
-  </si>
-  <si>
-    <t>Yes, MOASC includes top therapeutic area experts on its board because its members are medical oncologists who are experts in various cancer treatment areas.</t>
+The IOWA Oncology Society does provide engagement opportunities with leadership through networking events, conferences, and mentorship programs.</t>
+  </si>
+  <si>
+    <t>Yes, the organization provides engagement opportunities with leadership through various events, meetings, and networking opportunities where members can interact with top leaders in the field of medical oncology.</t>
+  </si>
+  <si>
+    <t>Yes, FLASCO does provide support for clinical trial recruitment through education and resources for members to refer patients to appropriate trials.</t>
+  </si>
+  <si>
+    <t>No, GASCO does not provide support for clinical trial recruitment. GASCO's primary focus is on providing education, resources, and advocacy for oncology professionals in Georgia.</t>
+  </si>
+  <si>
+    <t>No, IOS does not provide support for clinical trial recruitment. Clinical trial recruitment typically falls under the purview of academic institutions and research organizations, rather than professional societies like IOS.</t>
+  </si>
+  <si>
+    <t>Yes, 
+The IOWA Oncology Society works closely with research institutions and pharmaceutical companies to promote clinical trial recruitment among its members.</t>
+  </si>
+  <si>
+    <t>No, MOASC does not typically provide support for clinical trial recruitment. They primarily focus on education and networking for medical oncology professionals in Southern California.</t>
+  </si>
+  <si>
+    <t>No, FLASCO does not provide engagement opportunity with payors. FLASCO focuses on providing education, resources, and support for clinical oncologists, rather than direct interactions with payors.</t>
+  </si>
+  <si>
+    <t>No, GASCO does not have direct engagement opportunities with payors. GASCO primarily focuses on providing education, advocacy, and networking opportunities for oncology professionals in Georgia.</t>
+  </si>
+  <si>
+    <t>No, IOS does not provide engagement opportunity with payors. IOS is a professional organization focused on oncology practice in Indiana, rather than a platform for engagement with payors.</t>
+  </si>
+  <si>
+    <t>No, The focus of IOWA Oncology Society is primarily on oncology education and research, not payer engagement.</t>
+  </si>
+  <si>
+    <t>No, MOASC does not provide engagement opportunity with payors. The association focuses on providing education and networking opportunities for medical oncologists in the Southern California region.</t>
+  </si>
+  <si>
+    <t>No, FLASCO does not include area experts on its board. FLASCO is a professional organization for clinical oncology professionals and not specifically for area experts.</t>
+  </si>
+  <si>
+    <t>Yes, GASCO includes area experts on its board. GASCO is an organization dedicated to clinical oncology, so it would be vital to have experts on the board to provide insight and guidance.</t>
+  </si>
+  <si>
+    <t>No, , IOS does not have area experts on its board.</t>
+  </si>
+  <si>
+    <t>Yes, the IOWA Oncology Society includes area experts on its board to ensure high-quality leadership and decision-making.</t>
+  </si>
+  <si>
+    <t>No, 
+The Medical Oncology Association of Southern California (MOASC) does not have area experts on its board, as the board members primarily consist of oncologists and healthcare professionals in the field.</t>
+  </si>
+  <si>
+    <t>Yes, FLASCO is involved in therapeutic research collaborations. FLASCO actively engages in collaborations with various organizations and institutions to advance research in oncology.</t>
+  </si>
+  <si>
+    <t>Yes, GASCO is involved in therapeutic research collaborations. GASCO actively partners with academic institutions and pharmaceutical companies to conduct clinical trials and advance cancer research.</t>
+  </si>
+  <si>
+    <t>Yes, IOS is involved in therapeutic research collaborations. IOS actively participates in collaborative research efforts to advance oncology care and treatment options.</t>
+  </si>
+  <si>
+    <t>No, IOWA Oncology Society primarily focuses on education and networking opportunities for oncology professionals.</t>
+  </si>
+  <si>
+    <t>Yes, MOASC is involved in therapeutic research collaborations. The association actively partners with pharmaceutical companies, academic institutions, and other organizations to advance research in the field of oncology.</t>
+  </si>
+  <si>
+    <t>No, FLASCO does not include top therapeutic area experts on its board. The organization primarily consists of clinical oncologists and healthcare professionals who specialize in oncology management and research.</t>
+  </si>
+  <si>
+    <t>Yes, GASCO includes top therapeutic area experts on its board. GASCO is a professional organization for clinical oncologists, so it is likely that its board members are experts in various areas of oncology.</t>
+  </si>
+  <si>
+    <t>No, While IOS likely includes experts in oncology on its board, it cannot be confirmed whether they are all top therapeutic area experts.</t>
+  </si>
+  <si>
+    <t>Yes, the IOWA Oncology Society includes top therapeutic area experts on its board, as they are dedicated to advancing oncology care and treatment.</t>
+  </si>
+  <si>
+    <t>Yes, MOASC includes top therapeutic area experts on its board. The organization is comprised of medical oncologists and researchers who specialize in various areas of cancer treatment, providing a wealth of expertise and knowledge to guide its decision-making and initiatives.</t>
   </si>
   <si>
     <t>Florida</t>

--- a/Pharma_Society_Report.xlsx
+++ b/Pharma_Society_Report.xlsx
@@ -64,143 +64,140 @@
     <t>MOASC (Medical Oncology Association of Southern California)</t>
   </si>
   <si>
-    <t>800</t>
-  </si>
-  <si>
-    <t>320</t>
+    <t>500</t>
+  </si>
+  <si>
+    <t>200</t>
   </si>
   <si>
     <t>100</t>
   </si>
   <si>
-    <t>136</t>
-  </si>
-  <si>
-    <t>500</t>
-  </si>
-  <si>
-    <t>No, FLASCO does not include community sites, as it is focused on clinical oncology professionals in Florida.</t>
-  </si>
-  <si>
-    <t>No, GASCO does not encompass community sites because it is focused on connecting and supporting clinical oncology professionals in Georgia.</t>
-  </si>
-  <si>
-    <t>No, IOS primarily focuses on academic institutions for oncology research and care, not community sites.</t>
-  </si>
-  <si>
-    <t>No, The IOWA Oncology Society focuses primarily on academic and research institutions, not community sites.</t>
-  </si>
-  <si>
-    <t>No, MOASC does not encompass community sites, as it primarily focuses on medical oncology practices rather than community-based facilities.</t>
-  </si>
-  <si>
-    <t>No, FLASCO primarily focuses on education and advocacy within the oncology community, rather than influencing state or local policy.</t>
-  </si>
-  <si>
-    <t>No, GASCO is primarily focused on education and advocacy for clinical oncologists, rather than on influencing policy.</t>
-  </si>
-  <si>
-    <t>No, IOS is primarily a professional organization for oncologists and researchers and does not have a direct influence on state or local policy.</t>
-  </si>
-  <si>
-    <t>No, 
-The IOWA Oncology Society is not influential on state or local policy because its focus is primarily on promoting education, research, and professional development within the field of oncology rather than advocating for policy changes.</t>
-  </si>
-  <si>
-    <t>No, MOASC is primarily focused on education and networking for medical oncologists in Southern California, not on influencing policy.</t>
-  </si>
-  <si>
-    <t>Yes, FLASCO provides engagement opportunity with leadership, as they offer various networking events and conferences where members can interact with the organization's leadership team.</t>
-  </si>
-  <si>
-    <t>Yes, GASCO provides engagement opportunity with leadership, they offer various networking events and leadership development programs.</t>
-  </si>
-  <si>
-    <t>Yes, IOS provides engagement opportunities with leadership. IOS offers various networking events, conferences, and leadership development programs where members can interact and engage with key leaders in the oncology field.</t>
+    <t>50</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>No, , FLASCO primarily focuses on academic and research institutions.</t>
+  </si>
+  <si>
+    <t>No, GASCO does not encompass community sites. GASCO is a professional organization for medical oncologists and physicians who specialize in the care of cancer patients, typically based in academic or hospital settings.</t>
+  </si>
+  <si>
+    <t>No, IOS focuses on oncology practices, research, and education within the state of Indiana, not community sites.</t>
+  </si>
+  <si>
+    <t>No, , The IOWA Oncology Society focuses on academic and research institutions, not community sites.</t>
+  </si>
+  <si>
+    <t>No, MOASC does not encompass community sites, as it primarily focuses on medical oncology practices and professionals in Southern California.</t>
+  </si>
+  <si>
+    <t>No, FLASCO is not a political advocacy organization and focuses on education, research, and networking within the field of oncology.</t>
+  </si>
+  <si>
+    <t>Yes, GASCO is influential on state policy. GASCO works to advocate for oncology patients and providers at the state level, influencing policy decisions that impact cancer care in Georgia.</t>
+  </si>
+  <si>
+    <t>No, IOS is not influential on state or local policy. This organization is focused on advancing oncology care, research, and education rather than policy advocacy.</t>
+  </si>
+  <si>
+    <t>No, There are more influential medical societies in Iowa that have a greater impact on state and local policy.</t>
+  </si>
+  <si>
+    <t>No, MOASC is more focused on education, research, and advocacy within the medical oncology community rather than directly influencing state or local policy.</t>
+  </si>
+  <si>
+    <t>Yes, FLASCO provides engagement opportunities with leadership. The organization offers various programs and events that allow members to interact with leaders in the field of oncology.</t>
+  </si>
+  <si>
+    <t>Yes, GASCO provides engagement opportunities with leadership ,through various networking events, conferences, and committees.</t>
+  </si>
+  <si>
+    <t>Yes, IOS provides engagement opportunity with leadership. The society offers various programs and events where members can interact with and learn from leaders in the field of oncology.</t>
+  </si>
+  <si>
+    <t>Yes, the IOWA Oncology Society provides engagement opportunities with leadership through various networking events and conferences where members can interact with industry leaders.</t>
+  </si>
+  <si>
+    <t>Yes, MOASC provides engagement opportunity with leadership through various events, meetings, and networking opportunities.</t>
+  </si>
+  <si>
+    <t>No, FLASCO does not provide support for clinical trial recruitment. FLASCO is a professional organization for oncology professionals in Florida and does not specifically focus on clinical trial recruitment.</t>
+  </si>
+  <si>
+    <t>No, GASCO does not typically provide support for clinical trial recruitment. GASCO's primary focus is on education, advocacy, and networking for oncology professionals in Georgia.</t>
+  </si>
+  <si>
+    <t>No, IOS does not provide support for clinical trial recruitment, IOS focuses on education and advocacy for oncology professionals.</t>
   </si>
   <si>
     <t>Yes, 
-The IOWA Oncology Society does provide engagement opportunities with leadership through networking events, conferences, and mentorship programs.</t>
-  </si>
-  <si>
-    <t>Yes, the organization provides engagement opportunities with leadership through various events, meetings, and networking opportunities where members can interact with top leaders in the field of medical oncology.</t>
-  </si>
-  <si>
-    <t>Yes, FLASCO does provide support for clinical trial recruitment through education and resources for members to refer patients to appropriate trials.</t>
-  </si>
-  <si>
-    <t>No, GASCO does not provide support for clinical trial recruitment. GASCO's primary focus is on providing education, resources, and advocacy for oncology professionals in Georgia.</t>
-  </si>
-  <si>
-    <t>No, IOS does not provide support for clinical trial recruitment. Clinical trial recruitment typically falls under the purview of academic institutions and research organizations, rather than professional societies like IOS.</t>
-  </si>
-  <si>
-    <t>Yes, 
-The IOWA Oncology Society works closely with research institutions and pharmaceutical companies to promote clinical trial recruitment among its members.</t>
-  </si>
-  <si>
-    <t>No, MOASC does not typically provide support for clinical trial recruitment. They primarily focus on education and networking for medical oncology professionals in Southern California.</t>
-  </si>
-  <si>
-    <t>No, FLASCO does not provide engagement opportunity with payors. FLASCO focuses on providing education, resources, and support for clinical oncologists, rather than direct interactions with payors.</t>
-  </si>
-  <si>
-    <t>No, GASCO does not have direct engagement opportunities with payors. GASCO primarily focuses on providing education, advocacy, and networking opportunities for oncology professionals in Georgia.</t>
-  </si>
-  <si>
-    <t>No, IOS does not provide engagement opportunity with payors. IOS is a professional organization focused on oncology practice in Indiana, rather than a platform for engagement with payors.</t>
-  </si>
-  <si>
-    <t>No, The focus of IOWA Oncology Society is primarily on oncology education and research, not payer engagement.</t>
-  </si>
-  <si>
-    <t>No, MOASC does not provide engagement opportunity with payors. The association focuses on providing education and networking opportunities for medical oncologists in the Southern California region.</t>
-  </si>
-  <si>
-    <t>No, FLASCO does not include area experts on its board. FLASCO is a professional organization for clinical oncology professionals and not specifically for area experts.</t>
-  </si>
-  <si>
-    <t>Yes, GASCO includes area experts on its board. GASCO is an organization dedicated to clinical oncology, so it would be vital to have experts on the board to provide insight and guidance.</t>
-  </si>
-  <si>
-    <t>No, , IOS does not have area experts on its board.</t>
-  </si>
-  <si>
-    <t>Yes, the IOWA Oncology Society includes area experts on its board to ensure high-quality leadership and decision-making.</t>
-  </si>
-  <si>
-    <t>No, 
-The Medical Oncology Association of Southern California (MOASC) does not have area experts on its board, as the board members primarily consist of oncologists and healthcare professionals in the field.</t>
-  </si>
-  <si>
-    <t>Yes, FLASCO is involved in therapeutic research collaborations. FLASCO actively engages in collaborations with various organizations and institutions to advance research in oncology.</t>
-  </si>
-  <si>
-    <t>Yes, GASCO is involved in therapeutic research collaborations. GASCO actively partners with academic institutions and pharmaceutical companies to conduct clinical trials and advance cancer research.</t>
-  </si>
-  <si>
-    <t>Yes, IOS is involved in therapeutic research collaborations. IOS actively participates in collaborative research efforts to advance oncology care and treatment options.</t>
-  </si>
-  <si>
-    <t>No, IOWA Oncology Society primarily focuses on education and networking opportunities for oncology professionals.</t>
-  </si>
-  <si>
-    <t>Yes, MOASC is involved in therapeutic research collaborations. The association actively partners with pharmaceutical companies, academic institutions, and other organizations to advance research in the field of oncology.</t>
-  </si>
-  <si>
-    <t>No, FLASCO does not include top therapeutic area experts on its board. The organization primarily consists of clinical oncologists and healthcare professionals who specialize in oncology management and research.</t>
-  </si>
-  <si>
-    <t>Yes, GASCO includes top therapeutic area experts on its board. GASCO is a professional organization for clinical oncologists, so it is likely that its board members are experts in various areas of oncology.</t>
-  </si>
-  <si>
-    <t>No, While IOS likely includes experts in oncology on its board, it cannot be confirmed whether they are all top therapeutic area experts.</t>
-  </si>
-  <si>
-    <t>Yes, the IOWA Oncology Society includes top therapeutic area experts on its board, as they are dedicated to advancing oncology care and treatment.</t>
-  </si>
-  <si>
-    <t>Yes, MOASC includes top therapeutic area experts on its board. The organization is comprised of medical oncologists and researchers who specialize in various areas of cancer treatment, providing a wealth of expertise and knowledge to guide its decision-making and initiatives.</t>
+The Iowa Oncology Society does provide support for clinical trial recruitment.</t>
+  </si>
+  <si>
+    <t>No, MOASC does not provide support for clinical trial recruitment as their primary focus is on education and advocacy for medical oncologists in Southern California.</t>
+  </si>
+  <si>
+    <t>Yes, FLASCO does provide engagement opportunities with payors. FLASCO collaborates with payors to promote best practices and advocate for policies that benefit cancer patients and providers.</t>
+  </si>
+  <si>
+    <t>No, GASCO does not provide engagement opportunities with payors. GASCO focuses on education and advocacy for clinical oncologists, rather than facilitating discussions with payors.</t>
+  </si>
+  <si>
+    <t>No, IOS does not provide engagement opportunity with payors. IOS focuses on oncology education and advocacy for physicians.</t>
+  </si>
+  <si>
+    <t>No, the IOWA Oncology Society does not provide engagement opportunities with payors. , The primary focus of the society is on education, research, and advocacy for oncologists and cancer patients.</t>
+  </si>
+  <si>
+    <t>No, MOASC does not typically facilitate engagement opportunities with payors as they primarily focus on providing educational and networking opportunities for medical oncologists in Southern California.</t>
+  </si>
+  <si>
+    <t>Yes, FLASCO includes area experts on its board, as the organization is comprised of leading oncologists and healthcare professionals in Florida.</t>
+  </si>
+  <si>
+    <t>Yes, GASCO does include area experts on its board. This can be justified by the fact that the board members are typically oncologists or other healthcare professionals with expertise in the field of clinical oncology.</t>
+  </si>
+  <si>
+    <t>No, , The Indiana Oncology Society includes a variety of professionals in the field of oncology but does not specify area experts on its board.</t>
+  </si>
+  <si>
+    <t>Yes, the Iowa Oncology Society includes area experts on its board because they are an organization composed of oncology professionals dedicated to advancing cancer care in Iowa.</t>
+  </si>
+  <si>
+    <t>Yes, the MOASC board includes area experts. This organization consists of medical oncologists and healthcare professionals from Southern California who are considered experts in their field.</t>
+  </si>
+  <si>
+    <t>Yes, FLASCO is involved in therapeutic research collaborations. This can be seen through their participation in several clinical trials and collaborative projects with other institutions and organizations.</t>
+  </si>
+  <si>
+    <t>No, GASCO is not primarily involved in therapeutic research collaborations. GASCO's main focus is on education, advocacy, and providing a network for oncology professionals in Georgia.</t>
+  </si>
+  <si>
+    <t>No, IOS is primarily focused on education and advocacy for oncologists in Indiana.</t>
+  </si>
+  <si>
+    <t>Yes, , the IOWA Oncology Society is involved in therapeutic research collaborations.</t>
+  </si>
+  <si>
+    <t>Yes, MOASC is involved in therapeutic research collaborations. Medical Oncology Association of Southern California actively collaborates with various institutions and organizations for therapeutic research to advance cancer treatment and care.</t>
+  </si>
+  <si>
+    <t>Yes, FLASCO includes top therapeutic area experts on its board. FLASCO is a professional organization comprised of oncologists and other healthcare professionals specializing in the field of clinical oncology, making them experts in the top therapeutic areas related to cancer treatment.</t>
+  </si>
+  <si>
+    <t>Yes, GASCO includes top therapeutic area experts on its board. GASCO is an organization dedicated to advancing cancer care and treatment, so it is likely that the board includes experts in various therapeutic areas related to oncology.</t>
+  </si>
+  <si>
+    <t>No, IOS does not include top therapeutic area experts on its board. , The organization may consist of professionals from various fields related to oncology, but it does not specifically mention having top experts in therapeutic areas on its board.</t>
+  </si>
+  <si>
+    <t>No, because there is no provided information about the board members of the IOWA Oncology Society.</t>
+  </si>
+  <si>
+    <t>No, MOASC does not include top therapeutic area experts on its board. The organization aims to support medical oncologists and their practices, rather than prioritize specific therapeutic areas expertise.</t>
   </si>
   <si>
     <t>Florida</t>

--- a/Pharma_Society_Report.xlsx
+++ b/Pharma_Society_Report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="64">
   <si>
     <t>Society Name</t>
   </si>
@@ -64,149 +64,148 @@
     <t>MOASC (Medical Oncology Association of Southern California)</t>
   </si>
   <si>
-    <t>500</t>
-  </si>
-  <si>
-    <t>200</t>
+    <t>450</t>
+  </si>
+  <si>
+    <t>120</t>
   </si>
   <si>
     <t>100</t>
   </si>
   <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>400</t>
-  </si>
-  <si>
-    <t>No, , FLASCO primarily focuses on academic and research institutions.</t>
-  </si>
-  <si>
-    <t>No, GASCO does not encompass community sites. GASCO is a professional organization for medical oncologists and physicians who specialize in the care of cancer patients, typically based in academic or hospital settings.</t>
-  </si>
-  <si>
-    <t>No, IOS focuses on oncology practices, research, and education within the state of Indiana, not community sites.</t>
-  </si>
-  <si>
-    <t>No, , The IOWA Oncology Society focuses on academic and research institutions, not community sites.</t>
-  </si>
-  <si>
-    <t>No, MOASC does not encompass community sites, as it primarily focuses on medical oncology practices and professionals in Southern California.</t>
-  </si>
-  <si>
-    <t>No, FLASCO is not a political advocacy organization and focuses on education, research, and networking within the field of oncology.</t>
-  </si>
-  <si>
-    <t>Yes, GASCO is influential on state policy. GASCO works to advocate for oncology patients and providers at the state level, influencing policy decisions that impact cancer care in Georgia.</t>
-  </si>
-  <si>
-    <t>No, IOS is not influential on state or local policy. This organization is focused on advancing oncology care, research, and education rather than policy advocacy.</t>
-  </si>
-  <si>
-    <t>No, There are more influential medical societies in Iowa that have a greater impact on state and local policy.</t>
-  </si>
-  <si>
-    <t>No, MOASC is more focused on education, research, and advocacy within the medical oncology community rather than directly influencing state or local policy.</t>
-  </si>
-  <si>
-    <t>Yes, FLASCO provides engagement opportunities with leadership. The organization offers various programs and events that allow members to interact with leaders in the field of oncology.</t>
-  </si>
-  <si>
-    <t>Yes, GASCO provides engagement opportunities with leadership ,through various networking events, conferences, and committees.</t>
-  </si>
-  <si>
-    <t>Yes, IOS provides engagement opportunity with leadership. The society offers various programs and events where members can interact with and learn from leaders in the field of oncology.</t>
-  </si>
-  <si>
-    <t>Yes, the IOWA Oncology Society provides engagement opportunities with leadership through various networking events and conferences where members can interact with industry leaders.</t>
-  </si>
-  <si>
-    <t>Yes, MOASC provides engagement opportunity with leadership through various events, meetings, and networking opportunities.</t>
-  </si>
-  <si>
-    <t>No, FLASCO does not provide support for clinical trial recruitment. FLASCO is a professional organization for oncology professionals in Florida and does not specifically focus on clinical trial recruitment.</t>
-  </si>
-  <si>
-    <t>No, GASCO does not typically provide support for clinical trial recruitment. GASCO's primary focus is on education, advocacy, and networking for oncology professionals in Georgia.</t>
-  </si>
-  <si>
-    <t>No, IOS does not provide support for clinical trial recruitment, IOS focuses on education and advocacy for oncology professionals.</t>
+    <t>132</t>
+  </si>
+  <si>
+    <t>No, FLASCO does not encompass community sites, because it is primarily focused on clinical oncology practices.</t>
+  </si>
+  <si>
+    <t>No, GASCO does not encompass community sites. GASCO focuses on academic and research-based oncology practices, rather than community-based practices.</t>
+  </si>
+  <si>
+    <t>No, IOS focuses on professional oncology practices, not community sites.</t>
+  </si>
+  <si>
+    <t>No, the IOWA Oncology Society does not encompass community sites. It is focused on oncology professionals and research institutions in Iowa.</t>
+  </si>
+  <si>
+    <t>Yes, MOASC does encompass community sites, as they are a regional association representing medical oncologists in Southern California, including those practicing in community settings.</t>
+  </si>
+  <si>
+    <t>No, FLASCO primarily focuses on education and training initiatives for oncology professionals rather than direct policy advocacy.</t>
+  </si>
+  <si>
+    <t>No, GASCO is not influential on state or local policy. GASCO is a professional organization focused primarily on education, advocacy, and support for clinical oncology professionals in Georgia. They do not have a direct influence on policy-making decisions at the state or local level.</t>
+  </si>
+  <si>
+    <t>No, The Indiana Oncology Society does not have direct influence on state or local policy. The organization primarily focuses on advancing cancer care and advocating for oncology professionals, rather than lobbying for policy changes.</t>
+  </si>
+  <si>
+    <t>No, lack of public information or evidence of direct policy influence.</t>
+  </si>
+  <si>
+    <t>No, MOASC does not have a direct influence on state or local policy as it primarily focuses on professional development and education for medical oncologists in Southern California.</t>
+  </si>
+  <si>
+    <t>Yes, FLASCO provides engagement opportunity with leadership. FLASCO offers programs and events that allow members to interact with and learn from industry leaders in clinical oncology.</t>
+  </si>
+  <si>
+    <t>Yes, GASCO provides engagement opportunity with leadership. GASCO offers various leadership development programs, mentorship opportunities, and networking events for its members to engage with leaders in the field of oncology.</t>
+  </si>
+  <si>
+    <t>No, IOS does not provide engagement opportunity with leadership. The focus of IOS is primarily on oncology education and networking among oncology professionals.</t>
+  </si>
+  <si>
+    <t>Yes, IOWA Oncology Society provides engagement opportunity with leadership. The society offers various opportunities for members to engage with leadership through conferences, workshops, and networking events.</t>
+  </si>
+  <si>
+    <t>Yes, MOASC provides engagement opportunity with leadership. MOASC offers various leadership positions and opportunities for members to become involved in shaping the organization's direction and initiatives.</t>
+  </si>
+  <si>
+    <t>Yes, FLASCO does provide support for clinical trial recruitment. FLASCO collaborates with research institutions and sponsors to promote clinical trials and facilitate patient access.</t>
+  </si>
+  <si>
+    <t>No, GASCO does not provide support for clinical trial recruitment. GASCO is a professional organization for oncologists and does not specifically focus on clinical trial recruitment.</t>
+  </si>
+  <si>
+    <t>No, IOS does not provide support for clinical trial recruitment. IOS is an oncology society focused on education, networking, and advocacy for healthcare professionals in Indiana, rather than directly facilitating clinical trial recruitment.</t>
+  </si>
+  <si>
+    <t>Yes,  The Iowa Oncology Society provides support for clinical trial recruitment through education and resources for oncology professionals.</t>
+  </si>
+  <si>
+    <t>No, MOASC does not provide clinical trial recruitment support. They primarily focus on education, advocacy, and networking opportunities for medical oncologists in Southern California.</t>
+  </si>
+  <si>
+    <t>No, FLASCO primarily focuses on education and advocacy for cancer oncologists and clinicians, rather than direct engagement with payors.</t>
+  </si>
+  <si>
+    <t>Yes, GASCO provides engagement opportunities with payors. GASCO works closely with payors to ensure that patients have access to high-quality cancer care and treatments.</t>
+  </si>
+  <si>
+    <t>No, IOS does not provide engagement opportunity with payors. IOS is a professional organization for oncologists and does not typically offer opportunities for engagement with payors.</t>
+  </si>
+  <si>
+    <t>No, the IOWA Oncology Society does not provide engagement opportunities with payors. The organization's focus is on oncology practice, research, and education, rather than payor relations.</t>
+  </si>
+  <si>
+    <t>No, MOASC does not engage with payors. ,MOASC focuses on providing education and support for medical oncology professionals in Southern California.</t>
+  </si>
+  <si>
+    <t>Yes, FLASCO does include area experts on its board. FLASCO is a statewide organization that aims to enhance the quality and effectiveness of oncology care in the state of Florida. This includes having a board comprised of clinical oncologists and other professionals who are considered experts in the field.</t>
+  </si>
+  <si>
+    <t>No, GASCO does not include area experts on its board. The board members are primarily oncologists and healthcare administrators, rather than specialists in specific areas of oncology.</t>
   </si>
   <si>
     <t>Yes, 
-The Iowa Oncology Society does provide support for clinical trial recruitment.</t>
-  </si>
-  <si>
-    <t>No, MOASC does not provide support for clinical trial recruitment as their primary focus is on education and advocacy for medical oncologists in Southern California.</t>
-  </si>
-  <si>
-    <t>Yes, FLASCO does provide engagement opportunities with payors. FLASCO collaborates with payors to promote best practices and advocate for policies that benefit cancer patients and providers.</t>
-  </si>
-  <si>
-    <t>No, GASCO does not provide engagement opportunities with payors. GASCO focuses on education and advocacy for clinical oncologists, rather than facilitating discussions with payors.</t>
-  </si>
-  <si>
-    <t>No, IOS does not provide engagement opportunity with payors. IOS focuses on oncology education and advocacy for physicians.</t>
-  </si>
-  <si>
-    <t>No, the IOWA Oncology Society does not provide engagement opportunities with payors. , The primary focus of the society is on education, research, and advocacy for oncologists and cancer patients.</t>
-  </si>
-  <si>
-    <t>No, MOASC does not typically facilitate engagement opportunities with payors as they primarily focus on providing educational and networking opportunities for medical oncologists in Southern California.</t>
-  </si>
-  <si>
-    <t>Yes, FLASCO includes area experts on its board, as the organization is comprised of leading oncologists and healthcare professionals in Florida.</t>
-  </si>
-  <si>
-    <t>Yes, GASCO does include area experts on its board. This can be justified by the fact that the board members are typically oncologists or other healthcare professionals with expertise in the field of clinical oncology.</t>
-  </si>
-  <si>
-    <t>No, , The Indiana Oncology Society includes a variety of professionals in the field of oncology but does not specify area experts on its board.</t>
-  </si>
-  <si>
-    <t>Yes, the Iowa Oncology Society includes area experts on its board because they are an organization composed of oncology professionals dedicated to advancing cancer care in Iowa.</t>
-  </si>
-  <si>
-    <t>Yes, the MOASC board includes area experts. This organization consists of medical oncologists and healthcare professionals from Southern California who are considered experts in their field.</t>
-  </si>
-  <si>
-    <t>Yes, FLASCO is involved in therapeutic research collaborations. This can be seen through their participation in several clinical trials and collaborative projects with other institutions and organizations.</t>
-  </si>
-  <si>
-    <t>No, GASCO is not primarily involved in therapeutic research collaborations. GASCO's main focus is on education, advocacy, and providing a network for oncology professionals in Georgia.</t>
-  </si>
-  <si>
-    <t>No, IOS is primarily focused on education and advocacy for oncologists in Indiana.</t>
-  </si>
-  <si>
-    <t>Yes, , the IOWA Oncology Society is involved in therapeutic research collaborations.</t>
-  </si>
-  <si>
-    <t>Yes, MOASC is involved in therapeutic research collaborations. Medical Oncology Association of Southern California actively collaborates with various institutions and organizations for therapeutic research to advance cancer treatment and care.</t>
-  </si>
-  <si>
-    <t>Yes, FLASCO includes top therapeutic area experts on its board. FLASCO is a professional organization comprised of oncologists and other healthcare professionals specializing in the field of clinical oncology, making them experts in the top therapeutic areas related to cancer treatment.</t>
-  </si>
-  <si>
-    <t>Yes, GASCO includes top therapeutic area experts on its board. GASCO is an organization dedicated to advancing cancer care and treatment, so it is likely that the board includes experts in various therapeutic areas related to oncology.</t>
-  </si>
-  <si>
-    <t>No, IOS does not include top therapeutic area experts on its board. , The organization may consist of professionals from various fields related to oncology, but it does not specifically mention having top experts in therapeutic areas on its board.</t>
-  </si>
-  <si>
-    <t>No, because there is no provided information about the board members of the IOWA Oncology Society.</t>
-  </si>
-  <si>
-    <t>No, MOASC does not include top therapeutic area experts on its board. The organization aims to support medical oncologists and their practices, rather than prioritize specific therapeutic areas expertise.</t>
+The Indiana Oncology Society includes area experts in the field of oncology on its board to ensure comprehensive and informed decision-making.</t>
+  </si>
+  <si>
+    <t>Yes, the IOWA Oncology Society includes area experts on its board. This can be seen in the quality of information and guidance provided by the society.</t>
+  </si>
+  <si>
+    <t>Yes, MOASC does include area experts on its board. The organization is comprised of oncologists, pharmacists, nurses, and other healthcare professionals with expertise in medical oncology.</t>
+  </si>
+  <si>
+    <t>Yes, FLASCO is involved in therapeutic research collaborations. FLASCO actively partners with pharmaceutical companies, academic institutions, and other organizations to conduct research aimed at developing new treatments for cancer patients.</t>
+  </si>
+  <si>
+    <t>Yes, GASCO is involved in therapeutic research collaborations. GASCO actively partners with pharmaceutical companies, research institutions, and healthcare providers to advance cancer treatment options and improve patient outcomes.</t>
+  </si>
+  <si>
+    <t>No, IOS primarily focuses on education and advocacy for oncologists.</t>
+  </si>
+  <si>
+    <t>Yes, The IOWA Oncology Society is involved in therapeutic research collaborations.</t>
+  </si>
+  <si>
+    <t>Yes, MOASC is involved in collaborative research efforts with various organizations in the field of oncology ,as evidenced by their participation in multiple clinical trials and research projects.</t>
+  </si>
+  <si>
+    <t>Yes, FLASCO includes top therapeutic area experts on its board. FLASCO is known to have leading experts in the field of clinical oncology serving on its board, providing valuable insights and guidance for the organization.</t>
+  </si>
+  <si>
+    <t>No, GASCO does not include top therapeutic area experts on its board. The primary focus of GASCO is on promoting education and advocacy for clinical oncologists in Georgia, rather than including experts in specific therapeutic areas.</t>
+  </si>
+  <si>
+    <t>No, 
+The Indiana Oncology Society may or may not include top therapeutic area experts on its board, but the structure of the society and its composition is not fully clear from the abbreviation "IOS" provided.</t>
+  </si>
+  <si>
+    <t>No, The IOWA Oncology Society does not have top therapeutic area experts on its board. This is evident from the make-up of the current board members who do not solely focus on a specific therapeutic area within oncology.</t>
+  </si>
+  <si>
+    <t>Yes, 
+MOASC includes top therapeutic area experts on its board because its members consist of medical oncologists and other healthcare professionals specializing in oncology in Southern California.</t>
   </si>
   <si>
     <t>Florida</t>
   </si>
   <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>Midwest</t>
+    <t>Southeastern</t>
+  </si>
+  <si>
+    <t>Midwest.</t>
   </si>
   <si>
     <t>Southern California</t>
@@ -616,31 +615,31 @@
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -651,31 +650,31 @@
         <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -686,31 +685,31 @@
         <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -721,31 +720,31 @@
         <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -753,34 +752,34 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/Pharma_Society_Report.xlsx
+++ b/Pharma_Society_Report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
   <si>
     <t>Society Name</t>
   </si>
@@ -62,18 +62,6 @@
   </si>
   <si>
     <t>MOASC (Medical Oncology Association of Southern California)</t>
-  </si>
-  <si>
-    <t>450</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>132</t>
   </si>
   <si>
     <t>No, FLASCO does not encompass community sites, because it is primarily focused on clinical oncology practices.</t>
@@ -611,175 +599,175 @@
       <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>450</v>
+      </c>
+      <c r="C2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3">
+        <v>120</v>
+      </c>
+      <c r="C3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="K3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="C4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5">
+        <v>132</v>
+      </c>
+      <c r="C5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J5" t="s">
+        <v>54</v>
+      </c>
+      <c r="K5" t="s">
         <v>58</v>
-      </c>
-      <c r="K5" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
-        <v>16</v>
+      <c r="B6">
+        <v>450</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K6" t="s">
         <v>59</v>
-      </c>
-      <c r="K6" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/Pharma_Society_Report.xlsx
+++ b/Pharma_Society_Report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>Society Name</t>
   </si>
@@ -64,136 +64,151 @@
     <t>MOASC (Medical Oncology Association of Southern California)</t>
   </si>
   <si>
-    <t>No, FLASCO does not encompass community sites, because it is primarily focused on clinical oncology practices.</t>
-  </si>
-  <si>
-    <t>No, GASCO does not encompass community sites. GASCO focuses on academic and research-based oncology practices, rather than community-based practices.</t>
-  </si>
-  <si>
-    <t>No, IOS focuses on professional oncology practices, not community sites.</t>
-  </si>
-  <si>
-    <t>No, the IOWA Oncology Society does not encompass community sites. It is focused on oncology professionals and research institutions in Iowa.</t>
-  </si>
-  <si>
-    <t>Yes, MOASC does encompass community sites, as they are a regional association representing medical oncologists in Southern California, including those practicing in community settings.</t>
-  </si>
-  <si>
-    <t>No, FLASCO primarily focuses on education and training initiatives for oncology professionals rather than direct policy advocacy.</t>
-  </si>
-  <si>
-    <t>No, GASCO is not influential on state or local policy. GASCO is a professional organization focused primarily on education, advocacy, and support for clinical oncology professionals in Georgia. They do not have a direct influence on policy-making decisions at the state or local level.</t>
-  </si>
-  <si>
-    <t>No, The Indiana Oncology Society does not have direct influence on state or local policy. The organization primarily focuses on advancing cancer care and advocating for oncology professionals, rather than lobbying for policy changes.</t>
-  </si>
-  <si>
-    <t>No, lack of public information or evidence of direct policy influence.</t>
-  </si>
-  <si>
-    <t>No, MOASC does not have a direct influence on state or local policy as it primarily focuses on professional development and education for medical oncologists in Southern California.</t>
-  </si>
-  <si>
-    <t>Yes, FLASCO provides engagement opportunity with leadership. FLASCO offers programs and events that allow members to interact with and learn from industry leaders in clinical oncology.</t>
-  </si>
-  <si>
-    <t>Yes, GASCO provides engagement opportunity with leadership. GASCO offers various leadership development programs, mentorship opportunities, and networking events for its members to engage with leaders in the field of oncology.</t>
-  </si>
-  <si>
-    <t>No, IOS does not provide engagement opportunity with leadership. The focus of IOS is primarily on oncology education and networking among oncology professionals.</t>
-  </si>
-  <si>
-    <t>Yes, IOWA Oncology Society provides engagement opportunity with leadership. The society offers various opportunities for members to engage with leadership through conferences, workshops, and networking events.</t>
-  </si>
-  <si>
-    <t>Yes, MOASC provides engagement opportunity with leadership. MOASC offers various leadership positions and opportunities for members to become involved in shaping the organization's direction and initiatives.</t>
-  </si>
-  <si>
-    <t>Yes, FLASCO does provide support for clinical trial recruitment. FLASCO collaborates with research institutions and sponsors to promote clinical trials and facilitate patient access.</t>
-  </si>
-  <si>
-    <t>No, GASCO does not provide support for clinical trial recruitment. GASCO is a professional organization for oncologists and does not specifically focus on clinical trial recruitment.</t>
-  </si>
-  <si>
-    <t>No, IOS does not provide support for clinical trial recruitment. IOS is an oncology society focused on education, networking, and advocacy for healthcare professionals in Indiana, rather than directly facilitating clinical trial recruitment.</t>
-  </si>
-  <si>
-    <t>Yes,  The Iowa Oncology Society provides support for clinical trial recruitment through education and resources for oncology professionals.</t>
-  </si>
-  <si>
-    <t>No, MOASC does not provide clinical trial recruitment support. They primarily focus on education, advocacy, and networking opportunities for medical oncologists in Southern California.</t>
-  </si>
-  <si>
-    <t>No, FLASCO primarily focuses on education and advocacy for cancer oncologists and clinicians, rather than direct engagement with payors.</t>
-  </si>
-  <si>
-    <t>Yes, GASCO provides engagement opportunities with payors. GASCO works closely with payors to ensure that patients have access to high-quality cancer care and treatments.</t>
-  </si>
-  <si>
-    <t>No, IOS does not provide engagement opportunity with payors. IOS is a professional organization for oncologists and does not typically offer opportunities for engagement with payors.</t>
-  </si>
-  <si>
-    <t>No, the IOWA Oncology Society does not provide engagement opportunities with payors. The organization's focus is on oncology practice, research, and education, rather than payor relations.</t>
-  </si>
-  <si>
-    <t>No, MOASC does not engage with payors. ,MOASC focuses on providing education and support for medical oncology professionals in Southern California.</t>
-  </si>
-  <si>
-    <t>Yes, FLASCO does include area experts on its board. FLASCO is a statewide organization that aims to enhance the quality and effectiveness of oncology care in the state of Florida. This includes having a board comprised of clinical oncologists and other professionals who are considered experts in the field.</t>
-  </si>
-  <si>
-    <t>No, GASCO does not include area experts on its board. The board members are primarily oncologists and healthcare administrators, rather than specialists in specific areas of oncology.</t>
-  </si>
-  <si>
-    <t>Yes, 
-The Indiana Oncology Society includes area experts in the field of oncology on its board to ensure comprehensive and informed decision-making.</t>
-  </si>
-  <si>
-    <t>Yes, the IOWA Oncology Society includes area experts on its board. This can be seen in the quality of information and guidance provided by the society.</t>
-  </si>
-  <si>
-    <t>Yes, MOASC does include area experts on its board. The organization is comprised of oncologists, pharmacists, nurses, and other healthcare professionals with expertise in medical oncology.</t>
-  </si>
-  <si>
-    <t>Yes, FLASCO is involved in therapeutic research collaborations. FLASCO actively partners with pharmaceutical companies, academic institutions, and other organizations to conduct research aimed at developing new treatments for cancer patients.</t>
-  </si>
-  <si>
-    <t>Yes, GASCO is involved in therapeutic research collaborations. GASCO actively partners with pharmaceutical companies, research institutions, and healthcare providers to advance cancer treatment options and improve patient outcomes.</t>
-  </si>
-  <si>
-    <t>No, IOS primarily focuses on education and advocacy for oncologists.</t>
-  </si>
-  <si>
-    <t>Yes, The IOWA Oncology Society is involved in therapeutic research collaborations.</t>
-  </si>
-  <si>
-    <t>Yes, MOASC is involved in collaborative research efforts with various organizations in the field of oncology ,as evidenced by their participation in multiple clinical trials and research projects.</t>
-  </si>
-  <si>
-    <t>Yes, FLASCO includes top therapeutic area experts on its board. FLASCO is known to have leading experts in the field of clinical oncology serving on its board, providing valuable insights and guidance for the organization.</t>
-  </si>
-  <si>
-    <t>No, GASCO does not include top therapeutic area experts on its board. The primary focus of GASCO is on promoting education and advocacy for clinical oncologists in Georgia, rather than including experts in specific therapeutic areas.</t>
-  </si>
-  <si>
-    <t>No, 
-The Indiana Oncology Society may or may not include top therapeutic area experts on its board, but the structure of the society and its composition is not fully clear from the abbreviation "IOS" provided.</t>
-  </si>
-  <si>
-    <t>No, The IOWA Oncology Society does not have top therapeutic area experts on its board. This is evident from the make-up of the current board members who do not solely focus on a specific therapeutic area within oncology.</t>
-  </si>
-  <si>
-    <t>Yes, 
-MOASC includes top therapeutic area experts on its board because its members consist of medical oncologists and other healthcare professionals specializing in oncology in Southern California.</t>
+    <t>500</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>256</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>Yes, FLASCO encompasses community sites. FLASCO's membership includes both academic and community oncologists, allowing for representation of all oncology practices in Florida.</t>
+  </si>
+  <si>
+    <t>Yes, GASCO encompasses community sites. Community sites are an integral part of clinical oncology practice and GASCO aims to represent and support all oncology professionals within the state of Georgia, regardless of practice setting.</t>
+  </si>
+  <si>
+    <t>Yes, IOS encompasses community sites. Many community sites are members of the Indiana Oncology Society and participate in their activities and events.</t>
+  </si>
+  <si>
+    <t>Yes, because it includes oncology practices in Iowa communities.</t>
+  </si>
+  <si>
+    <t>No, MOASC does not encompass community sites. MOASC focuses on medical oncology practices in Southern California.</t>
+  </si>
+  <si>
+    <t>No, FLASCO is not a policy advocacy organization, They focus more on education, research, and professional development in the field of clinical oncology.</t>
+  </si>
+  <si>
+    <t>No, GASCO is not influential on state or local policy. GASCO is a professional organization focused on supporting clinical oncologists and advancing cancer care in Georgia, but it does not have a direct impact on policymaking at the state or local level.</t>
+  </si>
+  <si>
+    <t>No, IOS does not have a direct impact on state or local policy as it is a professional organization focused on oncology practices and research.</t>
+  </si>
+  <si>
+    <t>No, lack of publicly available information on their influence on policy.</t>
+  </si>
+  <si>
+    <t>No, MOASC primarily focuses on providing education and support to medical professionals in Southern California, rather than influencing policy.</t>
+  </si>
+  <si>
+    <t>Yes, FLASCO provides engagement opportunity with leadership. FLASCO offers networking and leadership development programs for its members to connect with oncology leaders in the state of Florida.</t>
+  </si>
+  <si>
+    <t>Yes, GASCO provides engagement opportunities with leadership through various events and initiatives.</t>
+  </si>
+  <si>
+    <t>Yes, IOS provides engagement opportunities with leadership. IOS offers networking events, conferences, and collaborations with industry leaders to foster communication and collaboration among members.</t>
+  </si>
+  <si>
+    <t>Yes, The IOWA Oncology Society provides engagement opportunities with leadership through networking events and mentorship programs.</t>
+  </si>
+  <si>
+    <t>Yes, MOASC provides engagement opportunity with leadership through various networking events, conferences, and educational programs.</t>
+  </si>
+  <si>
+    <t>No, FLASCO does not provide support for clinical trial recruitment. FLASCO focuses on education, advocacy, and professional development for oncology professionals.</t>
+  </si>
+  <si>
+    <t>Yes, GASCO does provide support for clinical trial recruitment. GASCO offers resources and education to assist oncology professionals in recruiting patients for clinical trials.</t>
+  </si>
+  <si>
+    <t>No, IOS does not provide support for clinical trial recruitment._IOS focuses on education and advocacy for oncology professionals, not patient recruitment for clinical trials.</t>
+  </si>
+  <si>
+    <t>No, IOWA Oncology Society does not provide support for clinical trial recruitment, as their main focus is on education and networking for oncology professionals.</t>
+  </si>
+  <si>
+    <t>No, MOASC does not provide support for clinical trial recruitment. They focus on education and advocacy for medical oncology professionals.</t>
+  </si>
+  <si>
+    <t>No, FLASCO does not have engagement opportunities with payors. FLASCO focuses on education and advocacy for clinical oncologists, not payor relations.</t>
+  </si>
+  <si>
+    <t>Yes, GASCO does provide engagement opportunities with payors. GASCO collaborates with payors to ensure the best outcomes for oncology patients and to address issues related to reimbursement and coverage.</t>
+  </si>
+  <si>
+    <t>No, IOS does not provide engagement opportunities with payors. IOS focuses primarily on oncology education and advocacy for oncologists, rather than direct engagement with payors.</t>
+  </si>
+  <si>
+    <t>No, IOWA Oncology Society does not engage with payors. The focus of the society is on clinical practice and education rather than payer negotiations.</t>
+  </si>
+  <si>
+    <t>No, MOASC does not provide engagement opportunity with payors. MOASC represents medical oncologists in Southern California and focuses on education, advocacy, and networking within the specialty.</t>
+  </si>
+  <si>
+    <t>Yes, FLASCO includes area experts on its board, as it is a society composed of oncology professionals and leaders in Florida.</t>
+  </si>
+  <si>
+    <t>Yes, GASCO includes area experts on its board because they are a professional organization representing clinical oncologists in Georgia.</t>
+  </si>
+  <si>
+    <t>Yes, the Indiana Oncology Society likely includes area experts on its board in order to provide expertise and guidance in the field of oncology.</t>
+  </si>
+  <si>
+    <t>No, the IOWA Oncology Society does not include area experts on its board. , It may be possible that the board members have expertise in other areas related to oncology or leadership.</t>
+  </si>
+  <si>
+    <t>Yes, board members are leading oncology experts in Southern California.</t>
+  </si>
+  <si>
+    <t>Yes, FLASCO is involved in therapeutic research collaborations. FLASCO actively participates in research collaborations with various organizations, institutions, and stakeholders in the field of oncology to advance clinical research and improve patient outcomes.</t>
+  </si>
+  <si>
+    <t>Yes, GASCO is involved in therapeutic research collaborations. This can be seen through their active involvement in research studies and clinical trials aimed at advancing cancer care.</t>
+  </si>
+  <si>
+    <t>Yes, collaboration with other medical organizations is essential for advancing therapeutic research.</t>
+  </si>
+  <si>
+    <t>No, IOWA Oncology Society primarily focuses on education and advocacy for oncology professionals in Iowa.</t>
+  </si>
+  <si>
+    <t>Yes, MOASC is involved in therapeutic research collaborations. The association actively collaborates with pharmaceutical companies, academic institutions, and other organizations to advance research in medical oncology.</t>
+  </si>
+  <si>
+    <t>No, FLASCO does not include top therapeutic area experts on its board., The organization's board primarily consists of oncologists and healthcare administrators.</t>
+  </si>
+  <si>
+    <t>No,  GASCO does not include top therapeutic area experts on its board. The board may consist of other professionals or stakeholders in the field of oncology, rather than experts in specific therapeutic areas.</t>
+  </si>
+  <si>
+    <t>No, IOS does not include top therapeutic area experts on its board. The organization focuses on providing education and support to healthcare professionals in the field of oncology.</t>
+  </si>
+  <si>
+    <t>Yes, the IOWA Oncology Society includes top therapeutic area experts on its board because they are oncology specialists.</t>
+  </si>
+  <si>
+    <t>No, MOASC does not include top therapeutic area experts on its board. The focus is more on community oncologists rather than specific therapeutic area experts.</t>
   </si>
   <si>
     <t>Florida</t>
   </si>
   <si>
-    <t>Southeastern</t>
+    <t>Georgia</t>
   </si>
   <si>
     <t>Midwest.</t>
+  </si>
+  <si>
+    <t>Midwest</t>
   </si>
   <si>
     <t>Southern California</t>
@@ -599,175 +614,175 @@
       <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="B2">
-        <v>450</v>
+      <c r="B2" t="s">
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="J2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="K2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="B3">
-        <v>120</v>
+      <c r="B3" t="s">
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H3" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="B4">
-        <v>100</v>
+      <c r="B4" t="s">
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J4" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="K4" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="B5">
-        <v>132</v>
+      <c r="B5" t="s">
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H5" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="I5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J5" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="K5" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="B6">
-        <v>450</v>
+      <c r="B6" t="s">
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H6" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="I6" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="J6" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="K6" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/Pharma_Society_Report.xlsx
+++ b/Pharma_Society_Report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="64">
   <si>
     <t>Society Name</t>
   </si>
@@ -64,148 +64,144 @@
     <t>MOASC (Medical Oncology Association of Southern California)</t>
   </si>
   <si>
-    <t>500</t>
-  </si>
-  <si>
-    <t>600</t>
-  </si>
-  <si>
-    <t>256</t>
-  </si>
-  <si>
-    <t>131</t>
+    <t>550</t>
   </si>
   <si>
     <t>400</t>
   </si>
   <si>
-    <t>Yes, FLASCO encompasses community sites. FLASCO's membership includes both academic and community oncologists, allowing for representation of all oncology practices in Florida.</t>
-  </si>
-  <si>
-    <t>Yes, GASCO encompasses community sites. Community sites are an integral part of clinical oncology practice and GASCO aims to represent and support all oncology professionals within the state of Georgia, regardless of practice setting.</t>
-  </si>
-  <si>
-    <t>Yes, IOS encompasses community sites. Many community sites are members of the Indiana Oncology Society and participate in their activities and events.</t>
-  </si>
-  <si>
-    <t>Yes, because it includes oncology practices in Iowa communities.</t>
-  </si>
-  <si>
-    <t>No, MOASC does not encompass community sites. MOASC focuses on medical oncology practices in Southern California.</t>
-  </si>
-  <si>
-    <t>No, FLASCO is not a policy advocacy organization, They focus more on education, research, and professional development in the field of clinical oncology.</t>
-  </si>
-  <si>
-    <t>No, GASCO is not influential on state or local policy. GASCO is a professional organization focused on supporting clinical oncologists and advancing cancer care in Georgia, but it does not have a direct impact on policymaking at the state or local level.</t>
-  </si>
-  <si>
-    <t>No, IOS does not have a direct impact on state or local policy as it is a professional organization focused on oncology practices and research.</t>
-  </si>
-  <si>
-    <t>No, lack of publicly available information on their influence on policy.</t>
-  </si>
-  <si>
-    <t>No, MOASC primarily focuses on providing education and support to medical professionals in Southern California, rather than influencing policy.</t>
-  </si>
-  <si>
-    <t>Yes, FLASCO provides engagement opportunity with leadership. FLASCO offers networking and leadership development programs for its members to connect with oncology leaders in the state of Florida.</t>
-  </si>
-  <si>
-    <t>Yes, GASCO provides engagement opportunities with leadership through various events and initiatives.</t>
-  </si>
-  <si>
-    <t>Yes, IOS provides engagement opportunities with leadership. IOS offers networking events, conferences, and collaborations with industry leaders to foster communication and collaboration among members.</t>
-  </si>
-  <si>
-    <t>Yes, The IOWA Oncology Society provides engagement opportunities with leadership through networking events and mentorship programs.</t>
-  </si>
-  <si>
-    <t>Yes, MOASC provides engagement opportunity with leadership through various networking events, conferences, and educational programs.</t>
-  </si>
-  <si>
-    <t>No, FLASCO does not provide support for clinical trial recruitment. FLASCO focuses on education, advocacy, and professional development for oncology professionals.</t>
-  </si>
-  <si>
-    <t>Yes, GASCO does provide support for clinical trial recruitment. GASCO offers resources and education to assist oncology professionals in recruiting patients for clinical trials.</t>
-  </si>
-  <si>
-    <t>No, IOS does not provide support for clinical trial recruitment._IOS focuses on education and advocacy for oncology professionals, not patient recruitment for clinical trials.</t>
-  </si>
-  <si>
-    <t>No, IOWA Oncology Society does not provide support for clinical trial recruitment, as their main focus is on education and networking for oncology professionals.</t>
-  </si>
-  <si>
-    <t>No, MOASC does not provide support for clinical trial recruitment. They focus on education and advocacy for medical oncology professionals.</t>
-  </si>
-  <si>
-    <t>No, FLASCO does not have engagement opportunities with payors. FLASCO focuses on education and advocacy for clinical oncologists, not payor relations.</t>
-  </si>
-  <si>
-    <t>Yes, GASCO does provide engagement opportunities with payors. GASCO collaborates with payors to ensure the best outcomes for oncology patients and to address issues related to reimbursement and coverage.</t>
-  </si>
-  <si>
-    <t>No, IOS does not provide engagement opportunities with payors. IOS focuses primarily on oncology education and advocacy for oncologists, rather than direct engagement with payors.</t>
-  </si>
-  <si>
-    <t>No, IOWA Oncology Society does not engage with payors. The focus of the society is on clinical practice and education rather than payer negotiations.</t>
-  </si>
-  <si>
-    <t>No, MOASC does not provide engagement opportunity with payors. MOASC represents medical oncologists in Southern California and focuses on education, advocacy, and networking within the specialty.</t>
-  </si>
-  <si>
-    <t>Yes, FLASCO includes area experts on its board, as it is a society composed of oncology professionals and leaders in Florida.</t>
-  </si>
-  <si>
-    <t>Yes, GASCO includes area experts on its board because they are a professional organization representing clinical oncologists in Georgia.</t>
-  </si>
-  <si>
-    <t>Yes, the Indiana Oncology Society likely includes area experts on its board in order to provide expertise and guidance in the field of oncology.</t>
-  </si>
-  <si>
-    <t>No, the IOWA Oncology Society does not include area experts on its board. , It may be possible that the board members have expertise in other areas related to oncology or leadership.</t>
-  </si>
-  <si>
-    <t>Yes, board members are leading oncology experts in Southern California.</t>
-  </si>
-  <si>
-    <t>Yes, FLASCO is involved in therapeutic research collaborations. FLASCO actively participates in research collaborations with various organizations, institutions, and stakeholders in the field of oncology to advance clinical research and improve patient outcomes.</t>
-  </si>
-  <si>
-    <t>Yes, GASCO is involved in therapeutic research collaborations. This can be seen through their active involvement in research studies and clinical trials aimed at advancing cancer care.</t>
-  </si>
-  <si>
-    <t>Yes, collaboration with other medical organizations is essential for advancing therapeutic research.</t>
-  </si>
-  <si>
-    <t>No, IOWA Oncology Society primarily focuses on education and advocacy for oncology professionals in Iowa.</t>
-  </si>
-  <si>
-    <t>Yes, MOASC is involved in therapeutic research collaborations. The association actively collaborates with pharmaceutical companies, academic institutions, and other organizations to advance research in medical oncology.</t>
-  </si>
-  <si>
-    <t>No, FLASCO does not include top therapeutic area experts on its board., The organization's board primarily consists of oncologists and healthcare administrators.</t>
-  </si>
-  <si>
-    <t>No,  GASCO does not include top therapeutic area experts on its board. The board may consist of other professionals or stakeholders in the field of oncology, rather than experts in specific therapeutic areas.</t>
-  </si>
-  <si>
-    <t>No, IOS does not include top therapeutic area experts on its board. The organization focuses on providing education and support to healthcare professionals in the field of oncology.</t>
-  </si>
-  <si>
-    <t>Yes, the IOWA Oncology Society includes top therapeutic area experts on its board because they are oncology specialists.</t>
-  </si>
-  <si>
-    <t>No, MOASC does not include top therapeutic area experts on its board. The focus is more on community oncologists rather than specific therapeutic area experts.</t>
+    <t>100</t>
+  </si>
+  <si>
+    <t>340</t>
+  </si>
+  <si>
+    <t>No, FLASCO does not encompass community sites. FLASCO is primarily focused on education and advocacy for medical oncologists and other professionals in the field of oncology, rather than community-based practices.</t>
+  </si>
+  <si>
+    <t>No, GASCO does not encompass community sites, as it is specifically focused on clinical oncology.</t>
+  </si>
+  <si>
+    <t>No, IOS does not encompass community sites. The organization is dedicated to oncology practices and professionals in Indiana, typically focusing on academic or hospital-based settings.</t>
+  </si>
+  <si>
+    <t>No, because it is specific to Oncology and likely focuses on larger medical facilities.</t>
+  </si>
+  <si>
+    <t>No, MOASC does not encompass community sites, as it is an association focused on medical oncology in Southern California.</t>
+  </si>
+  <si>
+    <t>No, FLASCO is an organization focused on education, research, and advocacy for clinical oncology professionals, rather than directly influencing policy.</t>
+  </si>
+  <si>
+    <t>No, GASCO does not have direct influence on state or local policy as it is primarily a professional organization focused on clinical oncology practices and advocacy.</t>
+  </si>
+  <si>
+    <t>No, IOS is primarily focused on providing education and resources for oncology professionals rather than directly influencing policy.</t>
+  </si>
+  <si>
+    <t>No, limited membership and focus on oncology issues.</t>
+  </si>
+  <si>
+    <t>No, MOASC does not have a direct influence on state or local policy as it is primarily a professional organization focused on medical oncology practices and education.</t>
+  </si>
+  <si>
+    <t>Yes, FLASCO provides engagement opportunity with leadership. FLASCO offers networking events, committee involvement, and opportunities to interact with leaders in the field of clinical oncology.</t>
+  </si>
+  <si>
+    <t>Yes, GASCO provides engagement opportunities with leadership. GASCO hosts various events, meetings, and conferences where members can interact with leadership and get involved in decision-making processes.</t>
+  </si>
+  <si>
+    <t>Yes, IOS provides leadership engagement opportunities for members. The organization offers networking events, educational programs, and mentorship opportunities that allow members to connect with leaders in the field of oncology.</t>
+  </si>
+  <si>
+    <t>Yes, 
+The IOWA Oncology Society provides various opportunities for its members to engage with leadership through meetings, events, and committees.</t>
+  </si>
+  <si>
+    <t>No, MOASC does not provide engagement opportunity with leadership, as it is primarily focused on networking and education for medical oncology professionals.</t>
+  </si>
+  <si>
+    <t>No, FLASCO does not provide support for clinical trial recruitment. FLASCO's primary focus is on education and advocacy for clinical oncologists in Florida, rather than directly assisting with recruitment for trials.</t>
+  </si>
+  <si>
+    <t>Yes, GASCO provides support for clinical trial recruitment through education and outreach efforts to oncologists and patients.</t>
+  </si>
+  <si>
+    <t>No, IOS does not provide support for clinical trial recruitment. IOS is primarily focused on providing education, networking, and advocacy for oncology professionals in Indiana, rather than directly assisting in patient recruitment for clinical trials.</t>
+  </si>
+  <si>
+    <t>Yes, they provide support for clinical trial recruitment as part of their mission to advance cancer treatment options for patients.</t>
+  </si>
+  <si>
+    <t>No, MOASC does not provide support for clinical trial recruitment. , MOASC focuses primarily on education, advocacy, and networking for medical oncologists in Southern California.</t>
+  </si>
+  <si>
+    <t>No, FLASCO does not provide engagement opportunity with payors. FLASCO's focus is on supporting oncology professionals in Florida rather than facilitating interactions with payors.</t>
+  </si>
+  <si>
+    <t>No, GASCO does not provide engagement opportunities with payors. GASCO primarily focuses on providing education, networking, and advocacy for clinical oncologists in Georgia, rather than facilitating interactions with payors.</t>
+  </si>
+  <si>
+    <t>No, IOS does not provide engagement opportunities with payors. IOS is a professional organization focused on oncology education and support, rather than payor negotiations.</t>
+  </si>
+  <si>
+    <t>No, The IOWA Oncology Society is a professional organization focused on education and support for oncologists, not on engaging with payors.</t>
+  </si>
+  <si>
+    <t>No, MOASC primarily focuses on providing support, education, and advocacy for medical oncologists in Southern California, rather than engaging with payors.</t>
+  </si>
+  <si>
+    <t>Yes, FLASCO includes area experts on its board. The organization consists of Florida-based oncology professionals who are considered experts in the field.</t>
+  </si>
+  <si>
+    <t>Yes, Gasco includes area experts on its board as they ensure the organization benefits from a wide range of knowledge and expertise in the field of clinical oncology.</t>
+  </si>
+  <si>
+    <t>No,IOS does not include area experts on its board. IOS's board is comprised of oncologists and healthcare professionals who specialize in the field of oncology.</t>
+  </si>
+  <si>
+    <t>No, The IOWA Oncology Society does not have area experts on its board. The society is composed of oncology professionals from various backgrounds.</t>
+  </si>
+  <si>
+    <t>Yes, the MOASC board includes area experts as they typically consist of leading oncologists and healthcare professionals in Southern California.</t>
+  </si>
+  <si>
+    <t>Yes, FLASCO is involved in therapeutic research collaborations. FLASCO works with various organizations and institutions on clinical trials and research studies to advance cancer treatments.</t>
+  </si>
+  <si>
+    <t>Yes, GASCO is involved in therapeutic research collaborations. GASCO partners with various organizations to advance research in oncology.</t>
+  </si>
+  <si>
+    <t>No, IOS is primarily focused on education and advocacy for oncologists in Indiana.</t>
+  </si>
+  <si>
+    <t>Yes, IOWA Oncology Society is likely involved in therapeutic research collaborations as they are a professional organization focused on oncology, which often involves research collaborations.</t>
+  </si>
+  <si>
+    <t>Yes, MOASC is involved in therapeutic research collaborations. MOASC works closely with pharmaceutical companies and academic institutions to conduct clinical research studies aimed at advancing cancer treatment options for patients.</t>
+  </si>
+  <si>
+    <t>Yes, FLASCO includes top therapeutic area experts on its board. This can be justified by the fact that FLASCO is a professional organization for medical oncologists in Florida, so it would make sense for the board to include experts in the field.</t>
+  </si>
+  <si>
+    <t>No, GASCO does not have top therapeutic area experts on its board. The organization primarily consists of clinical oncologists and other professionals in oncology-related fields.</t>
+  </si>
+  <si>
+    <t>No,  The Indiana Oncology Society (IOS) does not include top therapeutic area experts on its board. , There is no public information confirming the presence of top experts on the board.</t>
+  </si>
+  <si>
+    <t>Yes, the IOWA Oncology Society includes top therapeutic area experts on its board. The board members are actively involved in the field of oncology and bring vast experience and knowledge to the society's activities and initiatives.</t>
+  </si>
+  <si>
+    <t>Yes, 
+The MOASC board includes top therapeutic area experts who are leaders in the field of medical oncology in Southern California.</t>
   </si>
   <si>
     <t>Florida</t>
   </si>
   <si>
     <t>Georgia</t>
-  </si>
-  <si>
-    <t>Midwest.</t>
   </si>
   <si>
     <t>Midwest</t>
@@ -618,31 +614,31 @@
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -653,31 +649,31 @@
         <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -685,34 +681,34 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -720,34 +716,34 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -755,34 +751,34 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
